--- a/excercises/excercises/10.PVT.xlsx
+++ b/excercises/excercises/10.PVT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A4F935-7F6D-4986-BABB-F755CC464E25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B4B81-3DD7-48E1-B4FC-4ABDFE5B5776}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36465" yWindow="510" windowWidth="30480" windowHeight="19095" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База насосов" sheetId="104" state="hidden" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="162">
   <si>
     <t>P</t>
   </si>
@@ -853,6 +853,9 @@
       </rPr>
       <t>o</t>
     </r>
+  </si>
+  <si>
+    <t>версия</t>
   </si>
 </sst>
 </file>
@@ -8160,6 +8163,7 @@
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
+      <definedName name="getUFVersion"/>
       <definedName name="PVT_Bo_m3m3"/>
       <definedName name="PVT_Mug_cP"/>
       <definedName name="PVT_Muo_cP"/>
@@ -8170,8 +8174,8 @@
       <definedName name="PVT_Rs_m3m3"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -65673,8 +65677,8 @@
   </sheetPr>
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -65691,22 +65695,29 @@
     <col min="22" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="str">
+        <f>[1]!getUFVersion()</f>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>139</v>
       </c>
@@ -65722,7 +65733,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>141</v>
       </c>
@@ -65738,7 +65749,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>140</v>
       </c>
@@ -65754,7 +65765,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
         <v>142</v>
       </c>
@@ -65772,7 +65783,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>144</v>
       </c>
@@ -65790,7 +65801,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>147</v>
       </c>
@@ -65808,7 +65819,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
         <v>146</v>
       </c>
@@ -65826,7 +65837,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
         <v>148</v>
       </c>
@@ -65839,7 +65850,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>149</v>
       </c>

--- a/excercises/excercises/10.PVT.xlsx
+++ b/excercises/excercises/10.PVT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B4B81-3DD7-48E1-B4FC-4ABDFE5B5776}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C943A999-FB71-47BA-AFE8-A549EC669065}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1218,7 +1218,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Газосодержание от давления</a:t>
+              <a:t>Газосодержание </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>𝑅𝑠</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> от давления</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1391,28 +1401,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.27348943697138201</c:v>
+                  <c:v>0.27349174723217989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8988927763676839</c:v>
+                  <c:v>1.8989088169782065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3746222464887943</c:v>
+                  <c:v>4.3746592004508686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.078146611354056</c:v>
+                  <c:v>10.078231744978554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.21778507880758</c:v>
+                  <c:v>23.217981207547599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.829853777030927</c:v>
+                  <c:v>37.83017333901892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.488559430003527</c:v>
+                  <c:v>53.489011266547386</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.974621365274899</c:v>
+                  <c:v>69.975212465342153</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>80</c:v>
@@ -1648,7 +1658,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Газосодержание, м3/м3</a:t>
+                  <a:t>Газосодержание </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>𝑅𝑠</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>, м3/м3</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1834,7 +1854,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Объемный коэффициент от давления</a:t>
+              <a:t>Объемный коэффициент нефти</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1" baseline="0"/>
+              <a:t>Bo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> от давления</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2007,82 +2039,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1.0376527596788165</c:v>
+                  <c:v>1.0374688976697879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0403173727412995</c:v>
+                  <c:v>1.0401369210362343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0444102727998681</c:v>
+                  <c:v>1.0442352637125814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0539877935797775</c:v>
+                  <c:v>1.053826346244561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0767538727082331</c:v>
+                  <c:v>1.0766280968933539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1030546590708084</c:v>
+                  <c:v>1.1029740938417225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1322102757286072</c:v>
+                  <c:v>1.1321830324865976</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1638405832814809</c:v>
+                  <c:v>1.1638737482417305</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1806672063194987</c:v>
+                  <c:v>1.1807475652945436</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1755656078867194</c:v>
+                  <c:v>1.1756639894080549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1717538804745498</c:v>
+                  <c:v>1.1718656758425399</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1687977504115337</c:v>
+                  <c:v>1.1689199180055034</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1664382168802112</c:v>
+                  <c:v>1.1665686441218184</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1645112328704794</c:v>
+                  <c:v>1.1646483928719085</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1629078448678598</c:v>
+                  <c:v>1.1630505982668056</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1615528563960344</c:v>
+                  <c:v>1.1617003304572127</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1603926943680387</c:v>
+                  <c:v>1.1605442058167592</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1593881579705583</c:v>
+                  <c:v>1.1595431618574523</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1585099020034806</c:v>
+                  <c:v>1.1586679567294467</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1577355227772113</c:v>
+                  <c:v>1.1578962655147125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1570476202397262</c:v>
+                  <c:v>1.1572107492503227</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1564324749673425</c:v>
+                  <c:v>1.1565977366170115</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1558791238484611</c:v>
+                  <c:v>1.1560463028986281</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1553787009926739</c:v>
+                  <c:v>1.1555476132229627</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1549239591296774</c:v>
+                  <c:v>1.1550944456512144</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1545089163509799</c:v>
+                  <c:v>1.1546808391657513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,7 +2297,29 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Объемный коэффициент, м3/м3</a:t>
+                  <a:t>Объемный коэффициент</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>нефти</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Bo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>, м3/м3</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2451,7 +2505,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Вязкость нефти от давления</a:t>
+              <a:t>Вязкость нефти </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>𝜇_𝑜</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> от давления</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2624,82 +2688,82 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>3.4463445519065772</c:v>
+                  <c:v>3.4463442264242894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2336371116505358</c:v>
+                  <c:v>3.2336351614840253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9618622051682864</c:v>
+                  <c:v>2.9618585411030036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4986426136130651</c:v>
+                  <c:v>2.498636943003921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8766576953859042</c:v>
+                  <c:v>1.8766510716147229</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.500453325635279</c:v>
+                  <c:v>1.5004470360892632</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2534060565552225</c:v>
+                  <c:v>1.2534003305959938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0798118334263502</c:v>
+                  <c:v>1.0798066537745366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0143832116351985</c:v>
+                  <c:v>1.0142345648019659</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0516696946026671</c:v>
+                  <c:v>1.0511429363265428</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0946410836040579</c:v>
+                  <c:v>1.0936885546910942</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1427623596214616</c:v>
+                  <c:v>1.1413435273675852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1956079698529825</c:v>
+                  <c:v>1.1936888274451496</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2528187080253694</c:v>
+                  <c:v>1.2503716967253771</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3140740183946704</c:v>
+                  <c:v>1.3110782492038437</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3790736979594145</c:v>
+                  <c:v>1.3755153346216826</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.447525646071635</c:v>
+                  <c:v>1.4433983578380036</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5191376962112864</c:v>
+                  <c:v>1.5144431160318284</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5936123222926795</c:v>
+                  <c:v>1.5883604632756589</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6706434440866633</c:v>
+                  <c:v>1.664853038848376</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7499148114006253</c:v>
+                  <c:v>1.7436135477735999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8310996013758258</c:v>
+                  <c:v>1.8243242351491722</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9138609593794527</c:v>
+                  <c:v>1.9066572909964155</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9978532751006954</c:v>
+                  <c:v>1.9902759828750574</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0827240254263466</c:v>
+                  <c:v>2.0748363530066074</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.168116042785591</c:v>
+                  <c:v>2.1599893433307571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3074,7 +3138,29 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Вязкость газа от давления</a:t>
+              <a:t>Вязкость газа </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>𝜇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>g</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> от давления</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3227,82 +3313,82 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1.2105546241270334E-2</c:v>
+                  <c:v>1.2059353211390567E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2152607093515563E-2</c:v>
+                  <c:v>1.2107192761995657E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2231437157962866E-2</c:v>
+                  <c:v>1.2187318955247543E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.242965872389205E-2</c:v>
+                  <c:v>1.238888590743391E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2940038915198142E-2</c:v>
+                  <c:v>1.2908515352492692E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3565718967699225E-2</c:v>
+                  <c:v>1.3546588499853221E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4281265311255864E-2</c:v>
+                  <c:v>1.4277475447539722E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5067188178231777E-2</c:v>
+                  <c:v>1.5081559965179573E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5906881569035945E-2</c:v>
+                  <c:v>1.5942331647534887E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6786635470529682E-2</c:v>
+                  <c:v>1.6846675130245223E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7696649218225117E-2</c:v>
+                  <c:v>1.778627391722987E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8632637091865627E-2</c:v>
+                  <c:v>1.8759718979044708E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.959793520234334E-2</c:v>
+                  <c:v>1.9775208533050367E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0606043940918212E-2</c:v>
+                  <c:v>2.0853680368474431E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1683383160038823E-2</c:v>
+                  <c:v>2.2031880691004677E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2871605188958734E-2</c:v>
+                  <c:v>2.3364019617955738E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.422784902336915E-2</c:v>
+                  <c:v>2.4918840475639321E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5819443725453597E-2</c:v>
+                  <c:v>2.67658219074919E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7706850757567025E-2</c:v>
+                  <c:v>2.8941730482993252E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9907947532178368E-2</c:v>
+                  <c:v>3.1396089352881809E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.234779767218704E-2</c:v>
+                  <c:v>3.3947356962223979E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4831394992291626E-2</c:v>
+                  <c:v>3.6324404400056597E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.7103767854624728E-2</c:v>
+                  <c:v>3.8320119695326442E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8995470709754662E-2</c:v>
+                  <c:v>3.9920346276124327E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0517403578276795E-2</c:v>
+                  <c:v>4.1258506084948812E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.1800659307069124E-2</c:v>
+                  <c:v>4.2474321382086427E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3646,6 +3732,28 @@
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
               <a:t>воды</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>𝜇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>w</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU"/>
@@ -4393,82 +4501,82 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>829.05123087842594</c:v>
+                  <c:v>829.20137950637934</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>828.45478161425683</c:v>
+                  <c:v>828.62082775768931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>827.52497108427281</c:v>
+                  <c:v>827.7148762958318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>825.29416628033573</c:v>
+                  <c:v>825.53751805101138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>819.77149727308722</c:v>
+                  <c:v>820.13090939877736</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>813.17220185907354</c:v>
+                  <c:v>813.65090481543893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>805.7492481751533</c:v>
+                  <c:v>806.34620826021182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>797.69549994548436</c:v>
+                  <c:v>798.40778454676195</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>794.62594961422008</c:v>
+                  <c:v>795.3996159761042</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>798.07438539015709</c:v>
+                  <c:v>798.8389271605306</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>800.67052956551083</c:v>
+                  <c:v>801.42816652152976</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>802.69559012212653</c:v>
+                  <c:v>803.44782010599488</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>804.3193256384435</c:v>
+                  <c:v>805.06720691691078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>805.65027929133623</c:v>
+                  <c:v>806.39458719735023</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>806.76108957421775</c:v>
+                  <c:v>807.50240909514912</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>807.70220212873562</c:v>
+                  <c:v>808.44098549095747</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>808.5097437733757</c:v>
+                  <c:v>809.24634778477957</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>809.2102662513347</c:v>
+                  <c:v>809.9449773784753</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>809.82372129710234</c:v>
+                  <c:v>810.5567730128389</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>810.36539135418775</c:v>
+                  <c:v>811.09697644850621</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>810.84718000251246</c:v>
+                  <c:v>811.57745951497702</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>811.27849684997329</c:v>
+                  <c:v>812.00760667837062</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>811.6668781734993</c:v>
+                  <c:v>812.39493404820314</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>812.01843100788551</c:v>
+                  <c:v>812.74553229403625</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>812.33815662374536</c:v>
+                  <c:v>813.06438926777173</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>812.63018995583332</c:v>
+                  <c:v>813.35562879742679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4961,82 +5069,82 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.80923453779557586</c:v>
+                  <c:v>0.81937733452615791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0720135434559541</c:v>
+                  <c:v>4.1237052923205804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.205184623817356</c:v>
+                  <c:v>8.3110289855037642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.625539084112528</c:v>
+                  <c:v>16.846534268689066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.869447334844871</c:v>
+                  <c:v>34.342622955856108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.277440019390482</c:v>
+                  <c:v>52.021157916412513</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.472148721841492</c:v>
+                  <c:v>69.493695380599092</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.167243557721918</c:v>
+                  <c:v>86.467193698138104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101.16827513716821</c:v>
+                  <c:v>102.74696504047166</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116.36900892897458</c:v>
+                  <c:v>118.23508091041251</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>130.74752734310729</c:v>
+                  <c:v>132.92865197241386</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>144.3646036110502</c:v>
+                  <c:v>146.92039526661807</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157.36515020693065</c:v>
+                  <c:v>160.40167071311862</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>169.9814069327287</c:v>
+                  <c:v>173.66496493074359</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>182.53336625994487</c:v>
+                  <c:v>187.09774311486498</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>195.41703229727273</c:v>
+                  <c:v>201.15187114049081</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>209.06416247293561</c:v>
+                  <c:v>216.26327456433262</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>223.85018235404627</c:v>
+                  <c:v>232.69276290680091</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>239.92959410590848</c:v>
+                  <c:v>250.2854148078772</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>257.01485989595426</c:v>
+                  <c:v>268.24364650507692</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>274.21422686778067</c:v>
+                  <c:v>285.16619689670932</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>290.16236861656057</c:v>
+                  <c:v>299.59908268895049</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>303.59340071013372</c:v>
+                  <c:v>310.86737184585337</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>314.04397739127421</c:v>
+                  <c:v>319.40913278396914</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>322.02345994955135</c:v>
+                  <c:v>326.24643799736418</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>328.4808721005885</c:v>
+                  <c:v>332.23566990834644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7617,13 +7725,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>366850</xdr:colOff>
+      <xdr:colOff>366849</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>69883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>393436</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>49697</xdr:rowOff>
     </xdr:to>
@@ -7655,155 +7763,823 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>10984</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>24473</xdr:rowOff>
+      <xdr:colOff>772984</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>583407</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>18739</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>130970</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5339031" y="988879"/>
-          <a:ext cx="5858798" cy="2250501"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100"/>
-            <a:t>Постройте</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t> зависимости газосодержания в нефти, объемного коэффициента нефти, вязкости нефти от давления и температуры в приведенной ниже таблице. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>Настройте при необходимости отображение графиков для построенных величин. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>Объясните получившиеся графические зависимости.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100"/>
-            <a:t>Вопросы</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t> по упражению: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>1. Можно ли глядя на графические зависимости отпределить параметры нефти? Если да, то какие?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>2. Всегда ли заданное значение давления насыщения совпадает со значением давления насыщения считанным с графиков?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>3. Чему равно значение объемного коэффициента при Р = 1 атма ? Есть ли разница между значением по определению и графическими зависимостями?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5559297" y="857250"/>
+              <a:ext cx="5858798" cy="2666999"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="171450" indent="-171450">
+                <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:buChar char="•"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Постройте</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t> зависимости газосодержания в нефти </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑅</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑠</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>объемного коэффициента нефти</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑜</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>, вязкости нефти</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝜇</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑜</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>вязкости газа</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝜇</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑔</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>воды</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝜇</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑤</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>и других параметров</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t> от давления</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>и температуры в приведенной ниже таблице. </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="171450" indent="-171450">
+                <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:buChar char="•"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>Настройте при необходимости отображение графиков для построенных величин. </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="171450" indent="-171450">
+                <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:buChar char="•"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>Объясните получившиеся графические зависимости.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="171450" indent="-171450">
+                <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:buChar char="•"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Вопросы</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t> по упражению: </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>1. Можно ли глядя на графические зависимости отпределить параметры нефти? Если да, то какие?</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>2. Всегда ли заданное значение давления насыщения совпадает со значением давления насыщения считанным с графиков?</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>3. Чему равно значение объемного коэффициента при Р = 1 атма ? Есть ли разница между значением по определению и графическими зависимостями?</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5559297" y="857250"/>
+              <a:ext cx="5858798" cy="2666999"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="171450" indent="-171450">
+                <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:buChar char="•"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Постройте</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t> зависимости газосодержания в нефти </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅_𝑠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>объемного коэффициента нефти</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑜</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>, вязкости нефти</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_𝑜</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>вязкости газа</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑔</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>воды</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>и других параметров</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t> от давления</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>и температуры в приведенной ниже таблице. </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="171450" indent="-171450">
+                <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:buChar char="•"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>Настройте при необходимости отображение графиков для построенных величин. </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="171450" indent="-171450">
+                <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:buChar char="•"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>Объясните получившиеся графические зависимости.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="171450" indent="-171450">
+                <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:buChar char="•"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Вопросы</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t> по упражению: </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>1. Можно ли глядя на графические зависимости отпределить параметры нефти? Если да, то какие?</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>2. Всегда ли заданное значение давления насыщения совпадает со значением давления насыщения считанным с графиков?</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>3. Чему равно значение объемного коэффициента при Р = 1 атма ? Есть ли разница между значением по определению и графическими зависимостями?</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>431644</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>212569</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>54026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>471729</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>252654</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>57269</xdr:rowOff>
     </xdr:to>
@@ -7964,14 +8740,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>510882</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>291807</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>59757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>553280</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>334205</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
@@ -8003,13 +8779,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>18493</xdr:colOff>
+      <xdr:colOff>409018</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>52402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>54842</xdr:colOff>
+      <xdr:colOff>445367</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>55646</xdr:rowOff>
     </xdr:to>
@@ -65677,8 +66453,8 @@
   </sheetPr>
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF44" sqref="AF44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -65754,12 +66530,12 @@
         <v>140</v>
       </c>
       <c r="C9" s="5">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="9">
         <f>gamma_gas_*1.22</f>
-        <v>0.97599999999999998</v>
+        <v>0.98820000000000008</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>150</v>
@@ -65918,19 +66694,19 @@
       </c>
       <c r="D23" s="21">
         <f>[1]!PVT_Rs_m3m3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>0.27348943697138201</v>
+        <v>0.27349174723217989</v>
       </c>
       <c r="E23" s="22">
         <f>[1]!PVT_Bo_m3m3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0376527596788165</v>
+        <v>1.0374688976697879</v>
       </c>
       <c r="F23" s="21">
         <f>[1]!PVT_Muo_cP(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>3.4463445519065772</v>
+        <v>3.4463442264242894</v>
       </c>
       <c r="G23" s="23">
         <f>[1]!PVT_Mug_cP(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.2105546241270334E-2</v>
+        <v>1.2059353211390567E-2</v>
       </c>
       <c r="H23" s="22">
         <f>[1]!PVT_Muw_cP(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -65938,7 +66714,7 @@
       </c>
       <c r="I23" s="21">
         <f>[1]!PVT_Rhog_kgm3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>0.80923453779557586</v>
+        <v>0.81937733452615791</v>
       </c>
       <c r="J23" s="21">
         <f>[1]!PVT_Rhow_kgm3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -65946,7 +66722,7 @@
       </c>
       <c r="K23" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>829.05123087842594</v>
+        <v>829.20137950637934</v>
       </c>
     </row>
     <row r="24" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -65959,19 +66735,19 @@
       </c>
       <c r="D24" s="21">
         <f>[1]!PVT_Rs_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.8988927763676839</v>
+        <v>1.8989088169782065</v>
       </c>
       <c r="E24" s="22">
         <f>[1]!PVT_Bo_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0403173727412995</v>
+        <v>1.0401369210362343</v>
       </c>
       <c r="F24" s="21">
         <f>[1]!PVT_Muo_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>3.2336371116505358</v>
+        <v>3.2336351614840253</v>
       </c>
       <c r="G24" s="23">
         <f>[1]!PVT_Mug_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.2152607093515563E-2</v>
+        <v>1.2107192761995657E-2</v>
       </c>
       <c r="H24" s="22">
         <f>[1]!PVT_Muw_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -65979,7 +66755,7 @@
       </c>
       <c r="I24" s="21">
         <f>[1]!PVT_Rhog_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>4.0720135434559541</v>
+        <v>4.1237052923205804</v>
       </c>
       <c r="J24" s="21">
         <f>[1]!PVT_Rhow_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -65987,7 +66763,7 @@
       </c>
       <c r="K24" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>828.45478161425683</v>
+        <v>828.62082775768931</v>
       </c>
     </row>
     <row r="25" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66000,19 +66776,19 @@
       </c>
       <c r="D25" s="21">
         <f>[1]!PVT_Rs_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>4.3746222464887943</v>
+        <v>4.3746592004508686</v>
       </c>
       <c r="E25" s="22">
         <f>[1]!PVT_Bo_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0444102727998681</v>
+        <v>1.0442352637125814</v>
       </c>
       <c r="F25" s="21">
         <f>[1]!PVT_Muo_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.9618622051682864</v>
+        <v>2.9618585411030036</v>
       </c>
       <c r="G25" s="23">
         <f>[1]!PVT_Mug_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.2231437157962866E-2</v>
+        <v>1.2187318955247543E-2</v>
       </c>
       <c r="H25" s="22">
         <f>[1]!PVT_Muw_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66020,7 +66796,7 @@
       </c>
       <c r="I25" s="21">
         <f>[1]!PVT_Rhog_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>8.205184623817356</v>
+        <v>8.3110289855037642</v>
       </c>
       <c r="J25" s="21">
         <f>[1]!PVT_Rhow_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66028,7 +66804,7 @@
       </c>
       <c r="K25" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>827.52497108427281</v>
+        <v>827.7148762958318</v>
       </c>
     </row>
     <row r="26" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66041,19 +66817,19 @@
       </c>
       <c r="D26" s="21">
         <f>[1]!PVT_Rs_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>10.078146611354056</v>
+        <v>10.078231744978554</v>
       </c>
       <c r="E26" s="22">
         <f>[1]!PVT_Bo_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0539877935797775</v>
+        <v>1.053826346244561</v>
       </c>
       <c r="F26" s="21">
         <f>[1]!PVT_Muo_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.4986426136130651</v>
+        <v>2.498636943003921</v>
       </c>
       <c r="G26" s="23">
         <f>[1]!PVT_Mug_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.242965872389205E-2</v>
+        <v>1.238888590743391E-2</v>
       </c>
       <c r="H26" s="22">
         <f>[1]!PVT_Muw_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66061,7 +66837,7 @@
       </c>
       <c r="I26" s="21">
         <f>[1]!PVT_Rhog_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>16.625539084112528</v>
+        <v>16.846534268689066</v>
       </c>
       <c r="J26" s="21">
         <f>[1]!PVT_Rhow_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66069,7 +66845,7 @@
       </c>
       <c r="K26" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>825.29416628033573</v>
+        <v>825.53751805101138</v>
       </c>
     </row>
     <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66082,19 +66858,19 @@
       </c>
       <c r="D27" s="21">
         <f>[1]!PVT_Rs_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>23.21778507880758</v>
+        <v>23.217981207547599</v>
       </c>
       <c r="E27" s="22">
         <f>[1]!PVT_Bo_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0767538727082331</v>
+        <v>1.0766280968933539</v>
       </c>
       <c r="F27" s="21">
         <f>[1]!PVT_Muo_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.8766576953859042</v>
+        <v>1.8766510716147229</v>
       </c>
       <c r="G27" s="23">
         <f>[1]!PVT_Mug_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.2940038915198142E-2</v>
+        <v>1.2908515352492692E-2</v>
       </c>
       <c r="H27" s="22">
         <f>[1]!PVT_Muw_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66102,7 +66878,7 @@
       </c>
       <c r="I27" s="21">
         <f>[1]!PVT_Rhog_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>33.869447334844871</v>
+        <v>34.342622955856108</v>
       </c>
       <c r="J27" s="21">
         <f>[1]!PVT_Rhow_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66110,7 +66886,7 @@
       </c>
       <c r="K27" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>819.77149727308722</v>
+        <v>820.13090939877736</v>
       </c>
     </row>
     <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66123,19 +66899,19 @@
       </c>
       <c r="D28" s="21">
         <f>[1]!PVT_Rs_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>37.829853777030927</v>
+        <v>37.83017333901892</v>
       </c>
       <c r="E28" s="22">
         <f>[1]!PVT_Bo_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1030546590708084</v>
+        <v>1.1029740938417225</v>
       </c>
       <c r="F28" s="21">
         <f>[1]!PVT_Muo_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.500453325635279</v>
+        <v>1.5004470360892632</v>
       </c>
       <c r="G28" s="23">
         <f>[1]!PVT_Mug_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.3565718967699225E-2</v>
+        <v>1.3546588499853221E-2</v>
       </c>
       <c r="H28" s="22">
         <f>[1]!PVT_Muw_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66143,7 +66919,7 @@
       </c>
       <c r="I28" s="21">
         <f>[1]!PVT_Rhog_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>51.277440019390482</v>
+        <v>52.021157916412513</v>
       </c>
       <c r="J28" s="21">
         <f>[1]!PVT_Rhow_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66151,7 +66927,7 @@
       </c>
       <c r="K28" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>813.17220185907354</v>
+        <v>813.65090481543893</v>
       </c>
     </row>
     <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66164,19 +66940,19 @@
       </c>
       <c r="D29" s="21">
         <f>[1]!PVT_Rs_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>53.488559430003527</v>
+        <v>53.489011266547386</v>
       </c>
       <c r="E29" s="22">
         <f>[1]!PVT_Bo_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1322102757286072</v>
+        <v>1.1321830324865976</v>
       </c>
       <c r="F29" s="21">
         <f>[1]!PVT_Muo_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.2534060565552225</v>
+        <v>1.2534003305959938</v>
       </c>
       <c r="G29" s="23">
         <f>[1]!PVT_Mug_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.4281265311255864E-2</v>
+        <v>1.4277475447539722E-2</v>
       </c>
       <c r="H29" s="22">
         <f>[1]!PVT_Muw_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66184,7 +66960,7 @@
       </c>
       <c r="I29" s="21">
         <f>[1]!PVT_Rhog_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>68.472148721841492</v>
+        <v>69.493695380599092</v>
       </c>
       <c r="J29" s="21">
         <f>[1]!PVT_Rhow_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66192,7 +66968,7 @@
       </c>
       <c r="K29" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>805.7492481751533</v>
+        <v>806.34620826021182</v>
       </c>
     </row>
     <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66205,19 +66981,19 @@
       </c>
       <c r="D30" s="21">
         <f>[1]!PVT_Rs_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>69.974621365274899</v>
+        <v>69.975212465342153</v>
       </c>
       <c r="E30" s="22">
         <f>[1]!PVT_Bo_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1638405832814809</v>
+        <v>1.1638737482417305</v>
       </c>
       <c r="F30" s="21">
         <f>[1]!PVT_Muo_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0798118334263502</v>
+        <v>1.0798066537745366</v>
       </c>
       <c r="G30" s="23">
         <f>[1]!PVT_Mug_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.5067188178231777E-2</v>
+        <v>1.5081559965179573E-2</v>
       </c>
       <c r="H30" s="22">
         <f>[1]!PVT_Muw_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66225,7 +67001,7 @@
       </c>
       <c r="I30" s="21">
         <f>[1]!PVT_Rhog_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>85.167243557721918</v>
+        <v>86.467193698138104</v>
       </c>
       <c r="J30" s="21">
         <f>[1]!PVT_Rhow_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66233,7 +67009,7 @@
       </c>
       <c r="K30" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>797.69549994548436</v>
+        <v>798.40778454676195</v>
       </c>
     </row>
     <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66250,15 +67026,15 @@
       </c>
       <c r="E31" s="22">
         <f>[1]!PVT_Bo_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1806672063194987</v>
+        <v>1.1807475652945436</v>
       </c>
       <c r="F31" s="21">
         <f>[1]!PVT_Muo_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0143832116351985</v>
+        <v>1.0142345648019659</v>
       </c>
       <c r="G31" s="23">
         <f>[1]!PVT_Mug_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.5906881569035945E-2</v>
+        <v>1.5942331647534887E-2</v>
       </c>
       <c r="H31" s="22">
         <f>[1]!PVT_Muw_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66266,7 +67042,7 @@
       </c>
       <c r="I31" s="21">
         <f>[1]!PVT_Rhog_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>101.16827513716821</v>
+        <v>102.74696504047166</v>
       </c>
       <c r="J31" s="21">
         <f>[1]!PVT_Rhow_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66274,7 +67050,7 @@
       </c>
       <c r="K31" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>794.62594961422008</v>
+        <v>795.3996159761042</v>
       </c>
     </row>
     <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66291,15 +67067,15 @@
       </c>
       <c r="E32" s="22">
         <f>[1]!PVT_Bo_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1755656078867194</v>
+        <v>1.1756639894080549</v>
       </c>
       <c r="F32" s="21">
         <f>[1]!PVT_Muo_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0516696946026671</v>
+        <v>1.0511429363265428</v>
       </c>
       <c r="G32" s="23">
         <f>[1]!PVT_Mug_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.6786635470529682E-2</v>
+        <v>1.6846675130245223E-2</v>
       </c>
       <c r="H32" s="22">
         <f>[1]!PVT_Muw_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66307,7 +67083,7 @@
       </c>
       <c r="I32" s="21">
         <f>[1]!PVT_Rhog_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>116.36900892897458</v>
+        <v>118.23508091041251</v>
       </c>
       <c r="J32" s="21">
         <f>[1]!PVT_Rhow_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66315,7 +67091,7 @@
       </c>
       <c r="K32" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>798.07438539015709</v>
+        <v>798.8389271605306</v>
       </c>
     </row>
     <row r="33" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66332,15 +67108,15 @@
       </c>
       <c r="E33" s="22">
         <f>[1]!PVT_Bo_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1717538804745498</v>
+        <v>1.1718656758425399</v>
       </c>
       <c r="F33" s="21">
         <f>[1]!PVT_Muo_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.0946410836040579</v>
+        <v>1.0936885546910942</v>
       </c>
       <c r="G33" s="23">
         <f>[1]!PVT_Mug_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.7696649218225117E-2</v>
+        <v>1.778627391722987E-2</v>
       </c>
       <c r="H33" s="22">
         <f>[1]!PVT_Muw_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66348,7 +67124,7 @@
       </c>
       <c r="I33" s="21">
         <f>[1]!PVT_Rhog_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>130.74752734310729</v>
+        <v>132.92865197241386</v>
       </c>
       <c r="J33" s="21">
         <f>[1]!PVT_Rhow_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66356,7 +67132,7 @@
       </c>
       <c r="K33" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>800.67052956551083</v>
+        <v>801.42816652152976</v>
       </c>
     </row>
     <row r="34" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66373,15 +67149,15 @@
       </c>
       <c r="E34" s="22">
         <f>[1]!PVT_Bo_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1687977504115337</v>
+        <v>1.1689199180055034</v>
       </c>
       <c r="F34" s="21">
         <f>[1]!PVT_Muo_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1427623596214616</v>
+        <v>1.1413435273675852</v>
       </c>
       <c r="G34" s="23">
         <f>[1]!PVT_Mug_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.8632637091865627E-2</v>
+        <v>1.8759718979044708E-2</v>
       </c>
       <c r="H34" s="22">
         <f>[1]!PVT_Muw_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66389,7 +67165,7 @@
       </c>
       <c r="I34" s="21">
         <f>[1]!PVT_Rhog_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>144.3646036110502</v>
+        <v>146.92039526661807</v>
       </c>
       <c r="J34" s="21">
         <f>[1]!PVT_Rhow_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66397,7 +67173,7 @@
       </c>
       <c r="K34" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>802.69559012212653</v>
+        <v>803.44782010599488</v>
       </c>
     </row>
     <row r="35" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66414,15 +67190,15 @@
       </c>
       <c r="E35" s="22">
         <f>[1]!PVT_Bo_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1664382168802112</v>
+        <v>1.1665686441218184</v>
       </c>
       <c r="F35" s="21">
         <f>[1]!PVT_Muo_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1956079698529825</v>
+        <v>1.1936888274451496</v>
       </c>
       <c r="G35" s="23">
         <f>[1]!PVT_Mug_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>1.959793520234334E-2</v>
+        <v>1.9775208533050367E-2</v>
       </c>
       <c r="H35" s="22">
         <f>[1]!PVT_Muw_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66430,7 +67206,7 @@
       </c>
       <c r="I35" s="21">
         <f>[1]!PVT_Rhog_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>157.36515020693065</v>
+        <v>160.40167071311862</v>
       </c>
       <c r="J35" s="21">
         <f>[1]!PVT_Rhow_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66438,7 +67214,7 @@
       </c>
       <c r="K35" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>804.3193256384435</v>
+        <v>805.06720691691078</v>
       </c>
     </row>
     <row r="36" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66455,15 +67231,15 @@
       </c>
       <c r="E36" s="22">
         <f>[1]!PVT_Bo_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1645112328704794</v>
+        <v>1.1646483928719085</v>
       </c>
       <c r="F36" s="21">
         <f>[1]!PVT_Muo_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.2528187080253694</v>
+        <v>1.2503716967253771</v>
       </c>
       <c r="G36" s="23">
         <f>[1]!PVT_Mug_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>2.0606043940918212E-2</v>
+        <v>2.0853680368474431E-2</v>
       </c>
       <c r="H36" s="22">
         <f>[1]!PVT_Muw_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66471,7 +67247,7 @@
       </c>
       <c r="I36" s="21">
         <f>[1]!PVT_Rhog_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>169.9814069327287</v>
+        <v>173.66496493074359</v>
       </c>
       <c r="J36" s="21">
         <f>[1]!PVT_Rhow_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66479,7 +67255,7 @@
       </c>
       <c r="K36" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>805.65027929133623</v>
+        <v>806.39458719735023</v>
       </c>
     </row>
     <row r="37" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66496,15 +67272,15 @@
       </c>
       <c r="E37" s="22">
         <f>[1]!PVT_Bo_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1629078448678598</v>
+        <v>1.1630505982668056</v>
       </c>
       <c r="F37" s="21">
         <f>[1]!PVT_Muo_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.3140740183946704</v>
+        <v>1.3110782492038437</v>
       </c>
       <c r="G37" s="23">
         <f>[1]!PVT_Mug_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>2.1683383160038823E-2</v>
+        <v>2.2031880691004677E-2</v>
       </c>
       <c r="H37" s="22">
         <f>[1]!PVT_Muw_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66512,7 +67288,7 @@
       </c>
       <c r="I37" s="21">
         <f>[1]!PVT_Rhog_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>182.53336625994487</v>
+        <v>187.09774311486498</v>
       </c>
       <c r="J37" s="21">
         <f>[1]!PVT_Rhow_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66520,7 +67296,7 @@
       </c>
       <c r="K37" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>806.76108957421775</v>
+        <v>807.50240909514912</v>
       </c>
     </row>
     <row r="38" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66537,15 +67313,15 @@
       </c>
       <c r="E38" s="22">
         <f>[1]!PVT_Bo_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1615528563960344</v>
+        <v>1.1617003304572127</v>
       </c>
       <c r="F38" s="21">
         <f>[1]!PVT_Muo_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.3790736979594145</v>
+        <v>1.3755153346216826</v>
       </c>
       <c r="G38" s="23">
         <f>[1]!PVT_Mug_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>2.2871605188958734E-2</v>
+        <v>2.3364019617955738E-2</v>
       </c>
       <c r="H38" s="22">
         <f>[1]!PVT_Muw_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66553,7 +67329,7 @@
       </c>
       <c r="I38" s="21">
         <f>[1]!PVT_Rhog_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>195.41703229727273</v>
+        <v>201.15187114049081</v>
       </c>
       <c r="J38" s="21">
         <f>[1]!PVT_Rhow_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66561,7 +67337,7 @@
       </c>
       <c r="K38" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>807.70220212873562</v>
+        <v>808.44098549095747</v>
       </c>
     </row>
     <row r="39" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66578,15 +67354,15 @@
       </c>
       <c r="E39" s="22">
         <f>[1]!PVT_Bo_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1603926943680387</v>
+        <v>1.1605442058167592</v>
       </c>
       <c r="F39" s="21">
         <f>[1]!PVT_Muo_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.447525646071635</v>
+        <v>1.4433983578380036</v>
       </c>
       <c r="G39" s="23">
         <f>[1]!PVT_Mug_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>2.422784902336915E-2</v>
+        <v>2.4918840475639321E-2</v>
       </c>
       <c r="H39" s="22">
         <f>[1]!PVT_Muw_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66594,7 +67370,7 @@
       </c>
       <c r="I39" s="21">
         <f>[1]!PVT_Rhog_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>209.06416247293561</v>
+        <v>216.26327456433262</v>
       </c>
       <c r="J39" s="21">
         <f>[1]!PVT_Rhow_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66602,7 +67378,7 @@
       </c>
       <c r="K39" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>808.5097437733757</v>
+        <v>809.24634778477957</v>
       </c>
     </row>
     <row r="40" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66619,15 +67395,15 @@
       </c>
       <c r="E40" s="22">
         <f>[1]!PVT_Bo_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1593881579705583</v>
+        <v>1.1595431618574523</v>
       </c>
       <c r="F40" s="21">
         <f>[1]!PVT_Muo_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.5191376962112864</v>
+        <v>1.5144431160318284</v>
       </c>
       <c r="G40" s="23">
         <f>[1]!PVT_Mug_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>2.5819443725453597E-2</v>
+        <v>2.67658219074919E-2</v>
       </c>
       <c r="H40" s="22">
         <f>[1]!PVT_Muw_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66635,7 +67411,7 @@
       </c>
       <c r="I40" s="21">
         <f>[1]!PVT_Rhog_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>223.85018235404627</v>
+        <v>232.69276290680091</v>
       </c>
       <c r="J40" s="21">
         <f>[1]!PVT_Rhow_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66643,7 +67419,7 @@
       </c>
       <c r="K40" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>809.2102662513347</v>
+        <v>809.9449773784753</v>
       </c>
     </row>
     <row r="41" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66660,15 +67436,15 @@
       </c>
       <c r="E41" s="22">
         <f>[1]!PVT_Bo_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1585099020034806</v>
+        <v>1.1586679567294467</v>
       </c>
       <c r="F41" s="21">
         <f>[1]!PVT_Muo_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.5936123222926795</v>
+        <v>1.5883604632756589</v>
       </c>
       <c r="G41" s="23">
         <f>[1]!PVT_Mug_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>2.7706850757567025E-2</v>
+        <v>2.8941730482993252E-2</v>
       </c>
       <c r="H41" s="22">
         <f>[1]!PVT_Muw_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66676,7 +67452,7 @@
       </c>
       <c r="I41" s="21">
         <f>[1]!PVT_Rhog_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>239.92959410590848</v>
+        <v>250.2854148078772</v>
       </c>
       <c r="J41" s="21">
         <f>[1]!PVT_Rhow_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66684,7 +67460,7 @@
       </c>
       <c r="K41" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>809.82372129710234</v>
+        <v>810.5567730128389</v>
       </c>
     </row>
     <row r="42" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66701,15 +67477,15 @@
       </c>
       <c r="E42" s="22">
         <f>[1]!PVT_Bo_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1577355227772113</v>
+        <v>1.1578962655147125</v>
       </c>
       <c r="F42" s="21">
         <f>[1]!PVT_Muo_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.6706434440866633</v>
+        <v>1.664853038848376</v>
       </c>
       <c r="G42" s="23">
         <f>[1]!PVT_Mug_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>2.9907947532178368E-2</v>
+        <v>3.1396089352881809E-2</v>
       </c>
       <c r="H42" s="22">
         <f>[1]!PVT_Muw_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66717,7 +67493,7 @@
       </c>
       <c r="I42" s="21">
         <f>[1]!PVT_Rhog_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>257.01485989595426</v>
+        <v>268.24364650507692</v>
       </c>
       <c r="J42" s="21">
         <f>[1]!PVT_Rhow_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66725,7 +67501,7 @@
       </c>
       <c r="K42" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>810.36539135418775</v>
+        <v>811.09697644850621</v>
       </c>
     </row>
     <row r="43" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66742,15 +67518,15 @@
       </c>
       <c r="E43" s="22">
         <f>[1]!PVT_Bo_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1570476202397262</v>
+        <v>1.1572107492503227</v>
       </c>
       <c r="F43" s="21">
         <f>[1]!PVT_Muo_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.7499148114006253</v>
+        <v>1.7436135477735999</v>
       </c>
       <c r="G43" s="23">
         <f>[1]!PVT_Mug_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>3.234779767218704E-2</v>
+        <v>3.3947356962223979E-2</v>
       </c>
       <c r="H43" s="22">
         <f>[1]!PVT_Muw_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66758,7 +67534,7 @@
       </c>
       <c r="I43" s="21">
         <f>[1]!PVT_Rhog_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>274.21422686778067</v>
+        <v>285.16619689670932</v>
       </c>
       <c r="J43" s="21">
         <f>[1]!PVT_Rhow_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66766,7 +67542,7 @@
       </c>
       <c r="K43" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>810.84718000251246</v>
+        <v>811.57745951497702</v>
       </c>
     </row>
     <row r="44" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66783,15 +67559,15 @@
       </c>
       <c r="E44" s="22">
         <f>[1]!PVT_Bo_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1564324749673425</v>
+        <v>1.1565977366170115</v>
       </c>
       <c r="F44" s="21">
         <f>[1]!PVT_Muo_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.8310996013758258</v>
+        <v>1.8243242351491722</v>
       </c>
       <c r="G44" s="23">
         <f>[1]!PVT_Mug_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>3.4831394992291626E-2</v>
+        <v>3.6324404400056597E-2</v>
       </c>
       <c r="H44" s="22">
         <f>[1]!PVT_Muw_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66799,7 +67575,7 @@
       </c>
       <c r="I44" s="21">
         <f>[1]!PVT_Rhog_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>290.16236861656057</v>
+        <v>299.59908268895049</v>
       </c>
       <c r="J44" s="21">
         <f>[1]!PVT_Rhow_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66807,7 +67583,7 @@
       </c>
       <c r="K44" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>811.27849684997329</v>
+        <v>812.00760667837062</v>
       </c>
     </row>
     <row r="45" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66824,15 +67600,15 @@
       </c>
       <c r="E45" s="22">
         <f>[1]!PVT_Bo_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1558791238484611</v>
+        <v>1.1560463028986281</v>
       </c>
       <c r="F45" s="21">
         <f>[1]!PVT_Muo_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.9138609593794527</v>
+        <v>1.9066572909964155</v>
       </c>
       <c r="G45" s="23">
         <f>[1]!PVT_Mug_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>3.7103767854624728E-2</v>
+        <v>3.8320119695326442E-2</v>
       </c>
       <c r="H45" s="22">
         <f>[1]!PVT_Muw_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66840,7 +67616,7 @@
       </c>
       <c r="I45" s="21">
         <f>[1]!PVT_Rhog_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>303.59340071013372</v>
+        <v>310.86737184585337</v>
       </c>
       <c r="J45" s="21">
         <f>[1]!PVT_Rhow_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66848,7 +67624,7 @@
       </c>
       <c r="K45" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>811.6668781734993</v>
+        <v>812.39493404820314</v>
       </c>
     </row>
     <row r="46" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66865,15 +67641,15 @@
       </c>
       <c r="E46" s="22">
         <f>[1]!PVT_Bo_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1553787009926739</v>
+        <v>1.1555476132229627</v>
       </c>
       <c r="F46" s="21">
         <f>[1]!PVT_Muo_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.9978532751006954</v>
+        <v>1.9902759828750574</v>
       </c>
       <c r="G46" s="23">
         <f>[1]!PVT_Mug_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>3.8995470709754662E-2</v>
+        <v>3.9920346276124327E-2</v>
       </c>
       <c r="H46" s="22">
         <f>[1]!PVT_Muw_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66881,7 +67657,7 @@
       </c>
       <c r="I46" s="21">
         <f>[1]!PVT_Rhog_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>314.04397739127421</v>
+        <v>319.40913278396914</v>
       </c>
       <c r="J46" s="21">
         <f>[1]!PVT_Rhow_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66889,7 +67665,7 @@
       </c>
       <c r="K46" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>812.01843100788551</v>
+        <v>812.74553229403625</v>
       </c>
     </row>
     <row r="47" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66906,15 +67682,15 @@
       </c>
       <c r="E47" s="22">
         <f>[1]!PVT_Bo_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1549239591296774</v>
+        <v>1.1550944456512144</v>
       </c>
       <c r="F47" s="21">
         <f>[1]!PVT_Muo_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.0827240254263466</v>
+        <v>2.0748363530066074</v>
       </c>
       <c r="G47" s="23">
         <f>[1]!PVT_Mug_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>4.0517403578276795E-2</v>
+        <v>4.1258506084948812E-2</v>
       </c>
       <c r="H47" s="22">
         <f>[1]!PVT_Muw_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66922,7 +67698,7 @@
       </c>
       <c r="I47" s="21">
         <f>[1]!PVT_Rhog_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>322.02345994955135</v>
+        <v>326.24643799736418</v>
       </c>
       <c r="J47" s="21">
         <f>[1]!PVT_Rhow_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66930,7 +67706,7 @@
       </c>
       <c r="K47" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>812.33815662374536</v>
+        <v>813.06438926777173</v>
       </c>
     </row>
     <row r="48" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -66947,15 +67723,15 @@
       </c>
       <c r="E48" s="22">
         <f>[1]!PVT_Bo_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.1545089163509799</v>
+        <v>1.1546808391657513</v>
       </c>
       <c r="F48" s="21">
         <f>[1]!PVT_Muo_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.168116042785591</v>
+        <v>2.1599893433307571</v>
       </c>
       <c r="G48" s="23">
         <f>[1]!PVT_Mug_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
-        <v>4.1800659307069124E-2</v>
+        <v>4.2474321382086427E-2</v>
       </c>
       <c r="H48" s="22">
         <f>[1]!PVT_Muw_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66963,7 +67739,7 @@
       </c>
       <c r="I48" s="21">
         <f>[1]!PVT_Rhog_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>328.4808721005885</v>
+        <v>332.23566990834644</v>
       </c>
       <c r="J48" s="21">
         <f>[1]!PVT_Rhow_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -66971,7 +67747,7 @@
       </c>
       <c r="K48" s="21">
         <f>[1]!PVT_Rhoo_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>812.63018995583332</v>
+        <v>813.35562879742679</v>
       </c>
     </row>
     <row r="49" outlineLevel="1" x14ac:dyDescent="0.2"/>

--- a/excercises/excercises/10.PVT.xlsx
+++ b/excercises/excercises/10.PVT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C943A999-FB71-47BA-AFE8-A549EC669065}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964F1D72-B193-4F1B-A09D-546AE2A9C3D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35595" yWindow="795" windowWidth="25725" windowHeight="18555" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База насосов" sheetId="104" state="hidden" r:id="rId1"/>
@@ -7762,16 +7762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>772984</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>53578</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10984</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>130970</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>188948</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -7788,8 +7788,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5559297" y="857250"/>
-              <a:ext cx="5858798" cy="2666999"/>
+              <a:off x="5634875" y="343469"/>
+              <a:ext cx="5901247" cy="3441683"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7889,7 +7889,7 @@
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -8001,7 +8001,7 @@
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -8014,7 +8014,7 @@
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -8084,7 +8084,7 @@
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -8097,7 +8097,7 @@
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -8215,6 +8215,17 @@
                 <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
                 <a:t>3. Чему равно значение объемного коэффициента при Р = 1 атма ? Есть ли разница между значением по определению и графическими зависимостями?</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>4. </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>Как изменятся построенные зависимости если не вводить значения калибробочных параметров - давления насыщения, объемного коэффициента при давлении насыщения, вязкости при давлении насыщения?</a:t>
+              </a:r>
             </a:p>
             <a:p>
               <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
@@ -8236,8 +8247,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5559297" y="857250"/>
-              <a:ext cx="5858798" cy="2666999"/>
+              <a:off x="5634875" y="343469"/>
+              <a:ext cx="5901247" cy="3441683"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8314,31 +8325,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝐵</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑜</a:t>
+                <a:t>𝐵_𝑜</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
@@ -8388,23 +8375,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜇_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑔</a:t>
+                <a:t>𝜇_𝑔</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -8448,23 +8423,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜇_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑤</a:t>
+                <a:t>𝜇_𝑤</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -8560,6 +8523,17 @@
                 <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
                 <a:t>3. Чему равно значение объемного коэффициента при Р = 1 атма ? Есть ли разница между значением по определению и графическими зависимостями?</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>4. </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+                <a:t>Как изменятся построенные зависимости если не вводить значения калибробочных параметров - давления насыщения, объемного коэффициента при давлении насыщения, вязкости при давлении насыщения?</a:t>
+              </a:r>
             </a:p>
             <a:p>
               <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
@@ -8610,16 +8584,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>126608</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>56795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>54430</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>128649</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>388102</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8634,8 +8608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789715" y="13457465"/>
-          <a:ext cx="5973536" cy="1598220"/>
+          <a:off x="5732751" y="13187688"/>
+          <a:ext cx="5976494" cy="2215006"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8678,6 +8652,34 @@
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
             <a:t>Дополнительное задание</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Постройте и сравните зависимости </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>PVT </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>параметров от давления с учетом калибровки и без учета калибровки с использованием различных корреляций. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Оцените насколько сильно влияет выбор корреляции в случае наличия и отсутствия калибровки параметров?</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8816,16 +8818,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>39047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>426554</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>77501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8854,16 +8856,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>421822</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>467377</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>598779</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>3243</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>520095</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8892,16 +8894,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>222251</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>599110</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>326637</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>125708</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>91174</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>128075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -66453,8 +66455,8 @@
   </sheetPr>
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF44" sqref="AF44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>

--- a/excercises/excercises/10.PVT.xlsx
+++ b/excercises/excercises/10.PVT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964F1D72-B193-4F1B-A09D-546AE2A9C3D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B884E3-261B-4BD9-B658-1D2986D92DF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35595" yWindow="795" windowWidth="25725" windowHeight="18555" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="1575" windowWidth="28800" windowHeight="15330" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База насосов" sheetId="104" state="hidden" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <definedName name="gamma_wat_">PVT!$C$8</definedName>
     <definedName name="muob_">PVT!$C$15</definedName>
     <definedName name="Pb_" localSheetId="1">PVT!$C$12</definedName>
+    <definedName name="PVT_str_">PVT!$C$17</definedName>
     <definedName name="Rp_" localSheetId="1">PVT!$C$11</definedName>
     <definedName name="Rsb_" localSheetId="1">PVT!$C$10</definedName>
     <definedName name="Tres_" localSheetId="1">PVT!$C$13</definedName>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="163">
   <si>
     <t>P</t>
   </si>
@@ -857,6 +858,9 @@
   <si>
     <t>версия</t>
   </si>
+  <si>
+    <t>PVT строка</t>
+  </si>
 </sst>
 </file>
 
@@ -1015,7 +1019,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,6 +1035,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1095,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1103,16 +1113,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,20 +1141,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1274,7 +1288,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PVT!$D$22</c:f>
+              <c:f>PVT!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1309,7 +1323,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PVT!$B$23:$B$48</c:f>
+              <c:f>PVT!$B$24:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1396,7 +1410,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PVT!$D$23:$D$48</c:f>
+              <c:f>PVT!$D$24:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1912,7 +1926,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PVT!$E$22</c:f>
+              <c:f>PVT!$E$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1947,7 +1961,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PVT!$B$23:$B$48</c:f>
+              <c:f>PVT!$B$24:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2034,7 +2048,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PVT!$E$23:$E$48</c:f>
+              <c:f>PVT!$E$24:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2561,7 +2575,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PVT!$F$22</c:f>
+              <c:f>PVT!$F$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2596,7 +2610,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PVT!$B$23:$B$48</c:f>
+              <c:f>PVT!$B$24:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2683,7 +2697,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PVT!$F$23:$F$48</c:f>
+              <c:f>PVT!$F$24:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3186,7 +3200,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PVT!$G$22</c:f>
+              <c:f>PVT!$G$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3221,7 +3235,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PVT!$B$23:$B$48</c:f>
+              <c:f>PVT!$B$24:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3308,7 +3322,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PVT!$G$23:$G$48</c:f>
+              <c:f>PVT!$G$24:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3801,7 +3815,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PVT!$H$22</c:f>
+              <c:f>PVT!$H$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3836,7 +3850,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PVT!$B$23:$B$48</c:f>
+              <c:f>PVT!$B$24:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3923,7 +3937,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PVT!$H$23:$H$48</c:f>
+              <c:f>PVT!$H$24:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4374,7 +4388,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PVT!$K$22</c:f>
+              <c:f>PVT!$K$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4409,7 +4423,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PVT!$B$23:$B$48</c:f>
+              <c:f>PVT!$B$24:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4496,7 +4510,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PVT!$K$23:$K$48</c:f>
+              <c:f>PVT!$K$24:$K$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4942,7 +4956,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PVT!$I$22</c:f>
+              <c:f>PVT!$I$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4977,7 +4991,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PVT!$B$23:$B$48</c:f>
+              <c:f>PVT!$B$24:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -5064,7 +5078,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PVT!$I$23:$I$48</c:f>
+              <c:f>PVT!$I$24:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -5518,7 +5532,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PVT!$J$22</c:f>
+              <c:f>PVT!$J$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5553,7 +5567,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PVT!$B$23:$B$48</c:f>
+              <c:f>PVT!$B$24:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -5640,7 +5654,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PVT!$J$23:$J$48</c:f>
+              <c:f>PVT!$J$24:$J$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -7688,13 +7702,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>301026</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>61894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>48306</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7726,13 +7740,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>366849</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>69883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>49697</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7763,15 +7777,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>10984</xdr:colOff>
+      <xdr:colOff>51805</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>12165</xdr:rowOff>
+      <xdr:rowOff>107415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>188948</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -7788,8 +7802,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5634875" y="343469"/>
-              <a:ext cx="5901247" cy="3441683"/>
+              <a:off x="5657948" y="433986"/>
+              <a:ext cx="7105552" cy="2668443"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8247,8 +8261,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5634875" y="343469"/>
-              <a:ext cx="5901247" cy="3441683"/>
+              <a:off x="5657948" y="433986"/>
+              <a:ext cx="7105552" cy="2668443"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8548,13 +8562,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>212569</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>54026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>252654</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>57269</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8586,13 +8600,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>126608</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>56795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>388102</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8744,13 +8758,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>291807</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>59757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>334205</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8782,13 +8796,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>409018</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>52402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>445367</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>55646</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8820,13 +8834,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>157369</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>39047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>426554</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>77501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8858,13 +8872,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>467377</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>45554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>520095</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>7975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8896,13 +8910,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>599110</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>2367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>91174</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>128075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8943,6 +8957,7 @@
     <definedNames>
       <definedName name="getUFVersion"/>
       <definedName name="PVT_Bo_m3m3"/>
+      <definedName name="PVT_encode_string"/>
       <definedName name="PVT_Mug_cP"/>
       <definedName name="PVT_Muo_cP"/>
       <definedName name="PVT_Muw_cP"/>
@@ -8952,8 +8967,8 @@
       <definedName name="PVT_Rs_m3m3"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10720,29 +10735,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="V2" s="25" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="V2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="2:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -66453,10 +66468,10 @@
   <sheetPr codeName="Лист4">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -66496,1270 +66511,1298 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>139</v>
       </c>
       <c r="C7" s="5">
         <v>0.86</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="9">
+      <c r="D7" s="12"/>
+      <c r="E7" s="23">
         <f>gamma_oil_*1000</f>
         <v>860</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="9">
+      <c r="D8" s="12"/>
+      <c r="E8" s="23">
         <f>gamma_wat_*1000</f>
         <v>1000</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C9" s="5">
         <v>0.81</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="9">
+      <c r="D9" s="12"/>
+      <c r="E9" s="23">
         <f>gamma_gas_*1.22</f>
         <v>0.98820000000000008</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>142</v>
       </c>
       <c r="C10" s="5">
         <v>80</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="24">
         <f>Rsb_/gamma_oil_</f>
         <v>93.023255813953483</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="5">
         <v>80</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="24">
         <f>Rsb_/gamma_oil_</f>
         <v>93.023255813953483</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="5">
         <v>120</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="24">
         <f>Pb_*1.01325/10</f>
         <v>12.159000000000001</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C13" s="5">
         <v>100</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="24">
         <f>Tres_*9/5+32</f>
         <v>212</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>148</v>
       </c>
       <c r="C14" s="5">
         <v>1.2</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>129</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>149</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="F15" s="12"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0.810;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="s">
+    <row r="21" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D23" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E23" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F23" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G23" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H23" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I23" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J23" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K23" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="20">
+    <row r="24" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="18">
         <v>1</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C24" s="18">
         <v>80</v>
       </c>
-      <c r="D23" s="21">
-        <f>[1]!PVT_Rs_m3m3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D24" s="25">
+        <f>[1]!PVT_Rs_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.27349174723217989</v>
       </c>
-      <c r="E23" s="22">
-        <f>[1]!PVT_Bo_m3m3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E24" s="26">
+        <f>[1]!PVT_Bo_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0374688976697879</v>
       </c>
-      <c r="F23" s="21">
-        <f>[1]!PVT_Muo_cP(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F24" s="25">
+        <f>[1]!PVT_Muo_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.4463442264242894</v>
       </c>
-      <c r="G23" s="23">
-        <f>[1]!PVT_Mug_cP(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G24" s="27">
+        <f>[1]!PVT_Mug_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2059353211390567E-2</v>
       </c>
-      <c r="H23" s="22">
-        <f>[1]!PVT_Muw_cP(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H24" s="26">
+        <f>[1]!PVT_Muw_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.33586886209810729</v>
       </c>
-      <c r="I23" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I24" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.81937733452615791</v>
       </c>
-      <c r="J23" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J24" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.56653980677311</v>
       </c>
-      <c r="K23" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B23,C23,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K24" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>829.20137950637934</v>
       </c>
     </row>
-    <row r="24" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="20">
+    <row r="25" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="18">
         <v>5</v>
       </c>
-      <c r="C24" s="20">
-        <f>C23</f>
+      <c r="C25" s="18">
+        <f>C24</f>
         <v>80</v>
       </c>
-      <c r="D24" s="21">
-        <f>[1]!PVT_Rs_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D25" s="25">
+        <f>[1]!PVT_Rs_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.8989088169782065</v>
       </c>
-      <c r="E24" s="22">
-        <f>[1]!PVT_Bo_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E25" s="26">
+        <f>[1]!PVT_Bo_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0401369210362343</v>
       </c>
-      <c r="F24" s="21">
-        <f>[1]!PVT_Muo_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F25" s="25">
+        <f>[1]!PVT_Muo_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.2336351614840253</v>
       </c>
-      <c r="G24" s="23">
-        <f>[1]!PVT_Mug_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G25" s="27">
+        <f>[1]!PVT_Mug_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2107192761995657E-2</v>
       </c>
-      <c r="H24" s="22">
-        <f>[1]!PVT_Muw_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H25" s="26">
+        <f>[1]!PVT_Muw_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.3366698582445789</v>
       </c>
-      <c r="I24" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I25" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>4.1237052923205804</v>
       </c>
-      <c r="J24" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J25" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.6078507425874</v>
       </c>
-      <c r="K24" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K25" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>828.62082775768931</v>
       </c>
     </row>
-    <row r="25" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="20">
+    <row r="26" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="18">
         <v>10</v>
       </c>
-      <c r="C25" s="20">
-        <f t="shared" ref="C25:C48" si="0">C24</f>
+      <c r="C26" s="18">
+        <f t="shared" ref="C26:C49" si="0">C25</f>
         <v>80</v>
       </c>
-      <c r="D25" s="21">
-        <f>[1]!PVT_Rs_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D26" s="25">
+        <f>[1]!PVT_Rs_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>4.3746592004508686</v>
       </c>
-      <c r="E25" s="22">
-        <f>[1]!PVT_Bo_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E26" s="26">
+        <f>[1]!PVT_Bo_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0442352637125814</v>
       </c>
-      <c r="F25" s="21">
-        <f>[1]!PVT_Muo_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F26" s="25">
+        <f>[1]!PVT_Muo_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.9618585411030036</v>
       </c>
-      <c r="G25" s="23">
-        <f>[1]!PVT_Mug_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G26" s="27">
+        <f>[1]!PVT_Mug_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2187318955247543E-2</v>
       </c>
-      <c r="H25" s="22">
-        <f>[1]!PVT_Muw_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H26" s="26">
+        <f>[1]!PVT_Muw_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.33768124309210917</v>
       </c>
-      <c r="I25" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I26" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>8.3110289855037642</v>
       </c>
-      <c r="J25" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J26" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.66190643699338</v>
       </c>
-      <c r="K25" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K26" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>827.7148762958318</v>
       </c>
     </row>
-    <row r="26" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="20">
+    <row r="27" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="18">
         <v>20</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C27" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D26" s="21">
-        <f>[1]!PVT_Rs_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D27" s="25">
+        <f>[1]!PVT_Rs_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>10.078231744978554</v>
       </c>
-      <c r="E26" s="22">
-        <f>[1]!PVT_Bo_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E27" s="26">
+        <f>[1]!PVT_Bo_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.053826346244561</v>
       </c>
-      <c r="F26" s="21">
-        <f>[1]!PVT_Muo_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F27" s="25">
+        <f>[1]!PVT_Muo_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.498636943003921</v>
       </c>
-      <c r="G26" s="23">
-        <f>[1]!PVT_Mug_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G27" s="27">
+        <f>[1]!PVT_Mug_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.238888590743391E-2</v>
       </c>
-      <c r="H26" s="22">
-        <f>[1]!PVT_Muw_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H27" s="26">
+        <f>[1]!PVT_Muw_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.33973781166863876</v>
       </c>
-      <c r="I26" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I27" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>16.846534268689066</v>
       </c>
-      <c r="J26" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J27" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.77807803228427</v>
       </c>
-      <c r="K26" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K27" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>825.53751805101138</v>
       </c>
     </row>
-    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="20">
+    <row r="28" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="18">
         <v>40</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C28" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D27" s="21">
-        <f>[1]!PVT_Rs_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D28" s="25">
+        <f>[1]!PVT_Rs_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>23.217981207547599</v>
       </c>
-      <c r="E27" s="22">
-        <f>[1]!PVT_Bo_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E28" s="26">
+        <f>[1]!PVT_Bo_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0766280968933539</v>
       </c>
-      <c r="F27" s="21">
-        <f>[1]!PVT_Muo_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F28" s="25">
+        <f>[1]!PVT_Muo_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.8766510716147229</v>
       </c>
-      <c r="G27" s="23">
-        <f>[1]!PVT_Mug_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G28" s="27">
+        <f>[1]!PVT_Mug_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2908515352492692E-2</v>
       </c>
-      <c r="H27" s="22">
-        <f>[1]!PVT_Muw_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H28" s="26">
+        <f>[1]!PVT_Muw_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.34398614434757446</v>
       </c>
-      <c r="I27" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I28" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>34.342622955856108</v>
       </c>
-      <c r="J27" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J28" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>971.04268997016459</v>
       </c>
-      <c r="K27" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K28" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>820.13090939877736</v>
       </c>
     </row>
-    <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="20">
+    <row r="29" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="18">
         <v>60</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C29" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D28" s="21">
-        <f>[1]!PVT_Rs_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D29" s="25">
+        <f>[1]!PVT_Rs_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>37.83017333901892</v>
       </c>
-      <c r="E28" s="22">
-        <f>[1]!PVT_Bo_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E29" s="26">
+        <f>[1]!PVT_Bo_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1029740938417225</v>
       </c>
-      <c r="F28" s="21">
-        <f>[1]!PVT_Muo_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F29" s="25">
+        <f>[1]!PVT_Muo_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.5004470360892632</v>
       </c>
-      <c r="G28" s="23">
-        <f>[1]!PVT_Mug_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G29" s="27">
+        <f>[1]!PVT_Mug_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.3546588499853221E-2</v>
       </c>
-      <c r="H28" s="22">
-        <f>[1]!PVT_Muw_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H29" s="26">
+        <f>[1]!PVT_Muw_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.34841473772767878</v>
       </c>
-      <c r="I28" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I29" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>52.021157916412513</v>
       </c>
-      <c r="J28" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J29" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>971.35038666714604</v>
       </c>
-      <c r="K28" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K29" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>813.65090481543893</v>
       </c>
     </row>
-    <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="20">
+    <row r="30" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="18">
         <v>80</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C30" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D29" s="21">
-        <f>[1]!PVT_Rs_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D30" s="25">
+        <f>[1]!PVT_Rs_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>53.489011266547386</v>
       </c>
-      <c r="E29" s="22">
-        <f>[1]!PVT_Bo_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E30" s="26">
+        <f>[1]!PVT_Bo_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1321830324865976</v>
       </c>
-      <c r="F29" s="21">
-        <f>[1]!PVT_Muo_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F30" s="25">
+        <f>[1]!PVT_Muo_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2534003305959938</v>
       </c>
-      <c r="G29" s="23">
-        <f>[1]!PVT_Mug_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G30" s="27">
+        <f>[1]!PVT_Mug_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.4277475447539722E-2</v>
       </c>
-      <c r="H29" s="22">
-        <f>[1]!PVT_Muw_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H30" s="26">
+        <f>[1]!PVT_Muw_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.35302359180895171</v>
       </c>
-      <c r="I29" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I30" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>69.493695380599092</v>
       </c>
-      <c r="J29" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J30" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>971.70124991871342</v>
       </c>
-      <c r="K29" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K30" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>806.34620826021182</v>
       </c>
     </row>
-    <row r="30" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="20">
+    <row r="31" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="18">
         <v>100</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C31" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D30" s="21">
-        <f>[1]!PVT_Rs_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D31" s="25">
+        <f>[1]!PVT_Rs_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>69.975212465342153</v>
       </c>
-      <c r="E30" s="22">
-        <f>[1]!PVT_Bo_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E31" s="26">
+        <f>[1]!PVT_Bo_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1638737482417305</v>
       </c>
-      <c r="F30" s="21">
-        <f>[1]!PVT_Muo_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F31" s="25">
+        <f>[1]!PVT_Muo_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0798066537745366</v>
       </c>
-      <c r="G30" s="23">
-        <f>[1]!PVT_Mug_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G31" s="27">
+        <f>[1]!PVT_Mug_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.5081559965179573E-2</v>
       </c>
-      <c r="H30" s="22">
-        <f>[1]!PVT_Muw_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H31" s="26">
+        <f>[1]!PVT_Muw_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.3578127065913933</v>
       </c>
-      <c r="I30" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I31" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>86.467193698138104</v>
       </c>
-      <c r="J30" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J31" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>972.09537309020902</v>
       </c>
-      <c r="K30" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K31" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>798.40778454676195</v>
       </c>
     </row>
-    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20">
+    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="18">
         <v>120</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C32" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D31" s="21">
-        <f>[1]!PVT_Rs_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D32" s="25">
+        <f>[1]!PVT_Rs_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E31" s="22">
-        <f>[1]!PVT_Bo_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E32" s="26">
+        <f>[1]!PVT_Bo_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1807475652945436</v>
       </c>
-      <c r="F31" s="21">
-        <f>[1]!PVT_Muo_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F32" s="25">
+        <f>[1]!PVT_Muo_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0142345648019659</v>
       </c>
-      <c r="G31" s="23">
-        <f>[1]!PVT_Mug_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G32" s="27">
+        <f>[1]!PVT_Mug_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.5942331647534887E-2</v>
       </c>
-      <c r="H31" s="22">
-        <f>[1]!PVT_Muw_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H32" s="26">
+        <f>[1]!PVT_Muw_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.36278208207500345</v>
       </c>
-      <c r="I31" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I32" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>102.74696504047166</v>
       </c>
-      <c r="J31" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J32" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>972.53286117907339</v>
       </c>
-      <c r="K31" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K32" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>795.3996159761042</v>
       </c>
     </row>
-    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="20">
+    <row r="33" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="18">
         <v>140</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C33" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D32" s="21">
-        <f>[1]!PVT_Rs_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D33" s="25">
+        <f>[1]!PVT_Rs_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E32" s="22">
-        <f>[1]!PVT_Bo_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E33" s="26">
+        <f>[1]!PVT_Bo_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1756639894080549</v>
       </c>
-      <c r="F32" s="21">
-        <f>[1]!PVT_Muo_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F33" s="25">
+        <f>[1]!PVT_Muo_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0511429363265428</v>
       </c>
-      <c r="G32" s="23">
-        <f>[1]!PVT_Mug_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G33" s="27">
+        <f>[1]!PVT_Mug_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.6846675130245223E-2</v>
       </c>
-      <c r="H32" s="22">
-        <f>[1]!PVT_Muw_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H33" s="26">
+        <f>[1]!PVT_Muw_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.36793171825978227</v>
       </c>
-      <c r="I32" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I33" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>118.23508091041251</v>
       </c>
-      <c r="J32" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J33" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>973.01383088495345</v>
       </c>
-      <c r="K32" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K33" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>798.8389271605306</v>
       </c>
     </row>
-    <row r="33" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="20">
+    <row r="34" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="18">
         <v>160</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C34" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D33" s="21">
-        <f>[1]!PVT_Rs_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D34" s="25">
+        <f>[1]!PVT_Rs_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E33" s="22">
-        <f>[1]!PVT_Bo_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E34" s="26">
+        <f>[1]!PVT_Bo_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1718656758425399</v>
       </c>
-      <c r="F33" s="21">
-        <f>[1]!PVT_Muo_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F34" s="25">
+        <f>[1]!PVT_Muo_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0936885546910942</v>
       </c>
-      <c r="G33" s="23">
-        <f>[1]!PVT_Mug_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G34" s="27">
+        <f>[1]!PVT_Mug_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.778627391722987E-2</v>
       </c>
-      <c r="H33" s="22">
-        <f>[1]!PVT_Muw_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H34" s="26">
+        <f>[1]!PVT_Muw_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.3732616151457297</v>
       </c>
-      <c r="I33" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I34" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>132.92865197241386</v>
       </c>
-      <c r="J33" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J34" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>973.53841068777274</v>
       </c>
-      <c r="K33" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K34" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>801.42816652152976</v>
       </c>
     </row>
-    <row r="34" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="20">
+    <row r="35" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="18">
         <v>180</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C35" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D34" s="21">
-        <f>[1]!PVT_Rs_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D35" s="25">
+        <f>[1]!PVT_Rs_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E34" s="22">
-        <f>[1]!PVT_Bo_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E35" s="26">
+        <f>[1]!PVT_Bo_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1689199180055034</v>
       </c>
-      <c r="F34" s="21">
-        <f>[1]!PVT_Muo_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F35" s="25">
+        <f>[1]!PVT_Muo_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1413435273675852</v>
       </c>
-      <c r="G34" s="23">
-        <f>[1]!PVT_Mug_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G35" s="27">
+        <f>[1]!PVT_Mug_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.8759718979044708E-2</v>
       </c>
-      <c r="H34" s="22">
-        <f>[1]!PVT_Muw_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H35" s="26">
+        <f>[1]!PVT_Muw_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.37877177273284574</v>
       </c>
-      <c r="I34" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I35" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>146.92039526661807</v>
       </c>
-      <c r="J34" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J35" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>974.10674093385262</v>
       </c>
-      <c r="K34" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K35" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>803.44782010599488</v>
       </c>
     </row>
-    <row r="35" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="20">
+    <row r="36" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="18">
         <v>200</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C36" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D35" s="21">
-        <f>[1]!PVT_Rs_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D36" s="25">
+        <f>[1]!PVT_Rs_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E35" s="22">
-        <f>[1]!PVT_Bo_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E36" s="26">
+        <f>[1]!PVT_Bo_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1665686441218184</v>
       </c>
-      <c r="F35" s="21">
-        <f>[1]!PVT_Muo_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F36" s="25">
+        <f>[1]!PVT_Muo_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1936888274451496</v>
       </c>
-      <c r="G35" s="23">
-        <f>[1]!PVT_Mug_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G36" s="27">
+        <f>[1]!PVT_Mug_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.9775208533050367E-2</v>
       </c>
-      <c r="H35" s="22">
-        <f>[1]!PVT_Muw_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H36" s="26">
+        <f>[1]!PVT_Muw_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.38446219102113038</v>
       </c>
-      <c r="I35" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I36" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>160.40167071311862</v>
       </c>
-      <c r="J35" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J36" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>974.71897393020072</v>
       </c>
-      <c r="K35" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K36" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>805.06720691691078</v>
       </c>
     </row>
-    <row r="36" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="20">
+    <row r="37" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="18">
         <v>220</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C37" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D36" s="21">
-        <f>[1]!PVT_Rs_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D37" s="25">
+        <f>[1]!PVT_Rs_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E36" s="22">
-        <f>[1]!PVT_Bo_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E37" s="26">
+        <f>[1]!PVT_Bo_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1646483928719085</v>
       </c>
-      <c r="F36" s="21">
-        <f>[1]!PVT_Muo_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F37" s="25">
+        <f>[1]!PVT_Muo_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2503716967253771</v>
       </c>
-      <c r="G36" s="23">
-        <f>[1]!PVT_Mug_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G37" s="27">
+        <f>[1]!PVT_Mug_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.0853680368474431E-2</v>
       </c>
-      <c r="H36" s="22">
-        <f>[1]!PVT_Muw_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H37" s="26">
+        <f>[1]!PVT_Muw_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.39033287001058364</v>
       </c>
-      <c r="I36" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I37" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>173.66496493074359</v>
       </c>
-      <c r="J36" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J37" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>975.37527404707998</v>
       </c>
-      <c r="K36" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K37" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>806.39458719735023</v>
       </c>
     </row>
-    <row r="37" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="20">
+    <row r="38" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="18">
         <v>240</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C38" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D37" s="21">
-        <f>[1]!PVT_Rs_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D38" s="25">
+        <f>[1]!PVT_Rs_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E37" s="22">
-        <f>[1]!PVT_Bo_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E38" s="26">
+        <f>[1]!PVT_Bo_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1630505982668056</v>
       </c>
-      <c r="F37" s="21">
-        <f>[1]!PVT_Muo_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F38" s="25">
+        <f>[1]!PVT_Muo_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.3110782492038437</v>
       </c>
-      <c r="G37" s="23">
-        <f>[1]!PVT_Mug_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G38" s="27">
+        <f>[1]!PVT_Mug_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.2031880691004677E-2</v>
       </c>
-      <c r="H37" s="22">
-        <f>[1]!PVT_Muw_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H38" s="26">
+        <f>[1]!PVT_Muw_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.39638380970120551</v>
       </c>
-      <c r="I37" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I38" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>187.09774311486498</v>
       </c>
-      <c r="J37" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J38" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>976.07581782899126</v>
       </c>
-      <c r="K37" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K38" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>807.50240909514912</v>
       </c>
     </row>
-    <row r="38" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="20">
+    <row r="39" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="18">
         <v>260</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C39" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D38" s="21">
-        <f>[1]!PVT_Rs_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D39" s="25">
+        <f>[1]!PVT_Rs_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E38" s="22">
-        <f>[1]!PVT_Bo_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E39" s="26">
+        <f>[1]!PVT_Bo_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1617003304572127</v>
       </c>
-      <c r="F38" s="21">
-        <f>[1]!PVT_Muo_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F39" s="25">
+        <f>[1]!PVT_Muo_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.3755153346216826</v>
       </c>
-      <c r="G38" s="23">
-        <f>[1]!PVT_Mug_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G39" s="27">
+        <f>[1]!PVT_Mug_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.3364019617955738E-2</v>
       </c>
-      <c r="H38" s="22">
-        <f>[1]!PVT_Muw_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H39" s="26">
+        <f>[1]!PVT_Muw_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.40261501009299605</v>
       </c>
-      <c r="I38" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I39" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>201.15187114049081</v>
       </c>
-      <c r="J38" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J39" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>976.82079411420705</v>
       </c>
-      <c r="K38" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K39" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>808.44098549095747</v>
       </c>
     </row>
-    <row r="39" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="20">
+    <row r="40" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="18">
         <v>280</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C40" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D39" s="21">
-        <f>[1]!PVT_Rs_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D40" s="25">
+        <f>[1]!PVT_Rs_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E39" s="22">
-        <f>[1]!PVT_Bo_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E40" s="26">
+        <f>[1]!PVT_Bo_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1605442058167592</v>
       </c>
-      <c r="F39" s="21">
-        <f>[1]!PVT_Muo_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F40" s="25">
+        <f>[1]!PVT_Muo_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.4433983578380036</v>
       </c>
-      <c r="G39" s="23">
-        <f>[1]!PVT_Mug_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G40" s="27">
+        <f>[1]!PVT_Mug_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.4918840475639321E-2</v>
       </c>
-      <c r="H39" s="22">
-        <f>[1]!PVT_Muw_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H40" s="26">
+        <f>[1]!PVT_Muw_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4090264711859552</v>
       </c>
-      <c r="I39" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I40" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>216.26327456433262</v>
       </c>
-      <c r="J39" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J40" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>977.61040416301159</v>
       </c>
-      <c r="K39" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K40" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>809.24634778477957</v>
       </c>
     </row>
-    <row r="40" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="20">
+    <row r="41" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="18">
         <v>300</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C41" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D40" s="21">
-        <f>[1]!PVT_Rs_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D41" s="25">
+        <f>[1]!PVT_Rs_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E40" s="22">
-        <f>[1]!PVT_Bo_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E41" s="26">
+        <f>[1]!PVT_Bo_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1595431618574523</v>
       </c>
-      <c r="F40" s="21">
-        <f>[1]!PVT_Muo_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F41" s="25">
+        <f>[1]!PVT_Muo_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.5144431160318284</v>
       </c>
-      <c r="G40" s="23">
-        <f>[1]!PVT_Mug_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G41" s="27">
+        <f>[1]!PVT_Mug_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.67658219074919E-2</v>
       </c>
-      <c r="H40" s="22">
-        <f>[1]!PVT_Muw_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H41" s="26">
+        <f>[1]!PVT_Muw_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4156181929800829</v>
       </c>
-      <c r="I40" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I41" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>232.69276290680091</v>
       </c>
-      <c r="J40" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J41" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>978.4448617948093</v>
       </c>
-      <c r="K40" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K41" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>809.9449773784753</v>
       </c>
     </row>
-    <row r="41" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="20">
+    <row r="42" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="18">
         <v>320</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C42" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D41" s="21">
-        <f>[1]!PVT_Rs_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D42" s="25">
+        <f>[1]!PVT_Rs_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E41" s="22">
-        <f>[1]!PVT_Bo_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E42" s="26">
+        <f>[1]!PVT_Bo_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1586679567294467</v>
       </c>
-      <c r="F41" s="21">
-        <f>[1]!PVT_Muo_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F42" s="25">
+        <f>[1]!PVT_Muo_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.5883604632756589</v>
       </c>
-      <c r="G41" s="23">
-        <f>[1]!PVT_Mug_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G42" s="27">
+        <f>[1]!PVT_Mug_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.8941730482993252E-2</v>
       </c>
-      <c r="H41" s="22">
-        <f>[1]!PVT_Muw_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H42" s="26">
+        <f>[1]!PVT_Muw_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.42239017547537927</v>
       </c>
-      <c r="I41" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I42" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>250.2854148078772</v>
       </c>
-      <c r="J41" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J42" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>979.32439353427742</v>
       </c>
-      <c r="K41" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K42" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>810.5567730128389</v>
       </c>
     </row>
-    <row r="42" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="20">
+    <row r="43" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="18">
         <v>340</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C43" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D42" s="21">
-        <f>[1]!PVT_Rs_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D43" s="25">
+        <f>[1]!PVT_Rs_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E42" s="22">
-        <f>[1]!PVT_Bo_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E43" s="26">
+        <f>[1]!PVT_Bo_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1578962655147125</v>
       </c>
-      <c r="F42" s="21">
-        <f>[1]!PVT_Muo_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F43" s="25">
+        <f>[1]!PVT_Muo_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.664853038848376</v>
       </c>
-      <c r="G42" s="23">
-        <f>[1]!PVT_Mug_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G43" s="27">
+        <f>[1]!PVT_Mug_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.1396089352881809E-2</v>
       </c>
-      <c r="H42" s="22">
-        <f>[1]!PVT_Muw_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H43" s="26">
+        <f>[1]!PVT_Muw_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.42934241867184425</v>
       </c>
-      <c r="I42" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I43" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>268.24364650507692</v>
       </c>
-      <c r="J42" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J43" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>980.24923876675155</v>
       </c>
-      <c r="K42" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K43" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>811.09697644850621</v>
       </c>
     </row>
-    <row r="43" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="20">
+    <row r="44" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="18">
         <v>360</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C44" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D43" s="21">
-        <f>[1]!PVT_Rs_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D44" s="25">
+        <f>[1]!PVT_Rs_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E43" s="22">
-        <f>[1]!PVT_Bo_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E44" s="26">
+        <f>[1]!PVT_Bo_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1572107492503227</v>
       </c>
-      <c r="F43" s="21">
-        <f>[1]!PVT_Muo_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F44" s="25">
+        <f>[1]!PVT_Muo_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.7436135477735999</v>
       </c>
-      <c r="G43" s="23">
-        <f>[1]!PVT_Mug_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G44" s="27">
+        <f>[1]!PVT_Mug_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.3947356962223979E-2</v>
       </c>
-      <c r="H43" s="22">
-        <f>[1]!PVT_Muw_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H44" s="26">
+        <f>[1]!PVT_Muw_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4364749225694779</v>
       </c>
-      <c r="I43" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I44" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>285.16619689670932</v>
       </c>
-      <c r="J43" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J44" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>981.21964990304559</v>
       </c>
-      <c r="K43" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K44" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>811.57745951497702</v>
       </c>
     </row>
-    <row r="44" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="20">
+    <row r="45" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="18">
         <v>380</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C45" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D44" s="21">
-        <f>[1]!PVT_Rs_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D45" s="25">
+        <f>[1]!PVT_Rs_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E44" s="22">
-        <f>[1]!PVT_Bo_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E45" s="26">
+        <f>[1]!PVT_Bo_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1565977366170115</v>
       </c>
-      <c r="F44" s="21">
-        <f>[1]!PVT_Muo_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F45" s="25">
+        <f>[1]!PVT_Muo_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.8243242351491722</v>
       </c>
-      <c r="G44" s="23">
-        <f>[1]!PVT_Mug_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G45" s="27">
+        <f>[1]!PVT_Mug_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.6324404400056597E-2</v>
       </c>
-      <c r="H44" s="22">
-        <f>[1]!PVT_Muw_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H45" s="26">
+        <f>[1]!PVT_Muw_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4437876871682801</v>
       </c>
-      <c r="I44" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I45" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>299.59908268895049</v>
       </c>
-      <c r="J44" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J45" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>982.23589255391971</v>
       </c>
-      <c r="K44" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K45" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>812.00760667837062</v>
       </c>
     </row>
-    <row r="45" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="20">
+    <row r="46" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="18">
         <v>400</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C46" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D45" s="21">
-        <f>[1]!PVT_Rs_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D46" s="25">
+        <f>[1]!PVT_Rs_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E45" s="22">
-        <f>[1]!PVT_Bo_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E46" s="26">
+        <f>[1]!PVT_Bo_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1560463028986281</v>
       </c>
-      <c r="F45" s="21">
-        <f>[1]!PVT_Muo_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F46" s="25">
+        <f>[1]!PVT_Muo_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.9066572909964155</v>
       </c>
-      <c r="G45" s="23">
-        <f>[1]!PVT_Mug_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G46" s="27">
+        <f>[1]!PVT_Mug_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.8320119695326442E-2</v>
       </c>
-      <c r="H45" s="22">
-        <f>[1]!PVT_Muw_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H46" s="26">
+        <f>[1]!PVT_Muw_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.45128071246825097</v>
       </c>
-      <c r="I45" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I46" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>310.86737184585337</v>
       </c>
-      <c r="J45" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J46" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>983.29824571442282</v>
       </c>
-      <c r="K45" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K46" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>812.39493404820314</v>
       </c>
     </row>
-    <row r="46" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="20">
+    <row r="47" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="18">
         <v>420</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C47" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D46" s="21">
-        <f>[1]!PVT_Rs_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D47" s="25">
+        <f>[1]!PVT_Rs_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E46" s="22">
-        <f>[1]!PVT_Bo_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E47" s="26">
+        <f>[1]!PVT_Bo_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1555476132229627</v>
       </c>
-      <c r="F46" s="21">
-        <f>[1]!PVT_Muo_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F47" s="25">
+        <f>[1]!PVT_Muo_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.9902759828750574</v>
       </c>
-      <c r="G46" s="23">
-        <f>[1]!PVT_Mug_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G47" s="27">
+        <f>[1]!PVT_Mug_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.9920346276124327E-2</v>
       </c>
-      <c r="H46" s="22">
-        <f>[1]!PVT_Muw_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H47" s="26">
+        <f>[1]!PVT_Muw_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.45895399846939039</v>
       </c>
-      <c r="I46" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I47" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>319.40913278396914</v>
       </c>
-      <c r="J46" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J47" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>984.4070019583562</v>
       </c>
-      <c r="K46" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K47" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>812.74553229403625</v>
       </c>
     </row>
-    <row r="47" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="20">
+    <row r="48" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="18">
         <v>440</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C48" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D47" s="21">
-        <f>[1]!PVT_Rs_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D48" s="25">
+        <f>[1]!PVT_Rs_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E47" s="22">
-        <f>[1]!PVT_Bo_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E48" s="26">
+        <f>[1]!PVT_Bo_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1550944456512144</v>
       </c>
-      <c r="F47" s="21">
-        <f>[1]!PVT_Muo_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F48" s="25">
+        <f>[1]!PVT_Muo_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.0748363530066074</v>
       </c>
-      <c r="G47" s="23">
-        <f>[1]!PVT_Mug_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G48" s="27">
+        <f>[1]!PVT_Mug_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>4.1258506084948812E-2</v>
       </c>
-      <c r="H47" s="22">
-        <f>[1]!PVT_Muw_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H48" s="26">
+        <f>[1]!PVT_Muw_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.46680754517169848</v>
       </c>
-      <c r="I47" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I48" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>326.24643799736418</v>
       </c>
-      <c r="J47" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J48" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>985.56246764310936</v>
       </c>
-      <c r="K47" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K48" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>813.06438926777173</v>
       </c>
     </row>
-    <row r="48" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="20">
+    <row r="49" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="18">
         <v>460</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C49" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D48" s="21">
-        <f>[1]!PVT_Rs_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="D49" s="25">
+        <f>[1]!PVT_Rs_m3m3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E48" s="22">
-        <f>[1]!PVT_Bo_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="E49" s="26">
+        <f>[1]!PVT_Bo_m3m3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1546808391657513</v>
       </c>
-      <c r="F48" s="21">
-        <f>[1]!PVT_Muo_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="F49" s="25">
+        <f>[1]!PVT_Muo_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.1599893433307571</v>
       </c>
-      <c r="G48" s="23">
-        <f>[1]!PVT_Mug_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+      <c r="G49" s="27">
+        <f>[1]!PVT_Mug_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>4.2474321382086427E-2</v>
       </c>
-      <c r="H48" s="22">
-        <f>[1]!PVT_Muw_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="H49" s="26">
+        <f>[1]!PVT_Muw_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.47484135257517518</v>
       </c>
-      <c r="I48" s="21">
-        <f>[1]!PVT_Rhog_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="I49" s="25">
+        <f>[1]!PVT_Rhog_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>332.23566990834644</v>
       </c>
-      <c r="J48" s="21">
-        <f>[1]!PVT_Rhow_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="J49" s="25">
+        <f>[1]!PVT_Rhow_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>986.76496312514394</v>
       </c>
-      <c r="K48" s="21">
-        <f>[1]!PVT_Rhoo_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+      <c r="K49" s="25">
+        <f>[1]!PVT_Rhoo_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>813.35562879742679</v>
       </c>
     </row>
-    <row r="49" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K107" t="s">
+    <row r="50" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K108" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K118" s="6"/>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K119" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excercises/excercises/10.PVT.xlsx
+++ b/excercises/excercises/10.PVT.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr updateLinks="always" codeName="Workbook________" hidePivotFieldList="1"/>
+  <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48D921F-2FE6-4456-A063-75DC420681B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD436D7E-DD4D-4F2F-B788-C70B998913E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14280" yWindow="2280" windowWidth="21930" windowHeight="17160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PVT" sheetId="112" r:id="rId1"/>
@@ -830,7 +830,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1142,7 +1142,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1180,7 +1180,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="338671808"/>
@@ -1269,7 +1269,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1307,7 +1307,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="338671232"/>
@@ -1349,7 +1349,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1379,7 +1379,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1468,7 +1468,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1780,7 +1780,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1818,7 +1818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="216416832"/>
@@ -1920,7 +1920,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1958,7 +1958,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="216416256"/>
@@ -2000,7 +2000,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2030,7 +2030,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2117,7 +2117,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2429,7 +2429,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2467,7 +2467,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="216419712"/>
@@ -2552,7 +2552,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2590,7 +2590,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="216419136"/>
@@ -2632,7 +2632,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2662,7 +2662,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3072,7 +3072,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="402394496"/>
@@ -3175,7 +3175,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="402392768"/>
@@ -3217,7 +3217,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3247,7 +3247,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3687,7 +3687,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="401850944"/>
@@ -3790,7 +3790,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="405283968"/>
@@ -3832,7 +3832,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3862,7 +3862,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4260,7 +4260,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="405286272"/>
@@ -4358,7 +4358,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="403460608"/>
@@ -4400,7 +4400,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4430,7 +4430,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4828,7 +4828,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="403460032"/>
@@ -4926,7 +4926,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="343640896"/>
@@ -4968,7 +4968,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4998,7 +4998,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5404,7 +5404,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="405287424"/>
@@ -5502,7 +5502,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="403459456"/>
@@ -5544,7 +5544,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5574,7 +5574,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5984,7 +5984,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="405286272"/>
@@ -6090,7 +6090,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="403460608"/>
@@ -6132,7 +6132,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6162,7 +6162,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9136,16 +9136,15 @@
     <sheetNames>
       <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
-      <sheetName val="UniflocVBA_7"/>
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
       <definedName name="PVT_Bg_m3m3"/>
       <definedName name="PVT_Bo_m3m3"/>
       <definedName name="PVT_encode_string"/>
-      <definedName name="PVT_Mug_cP"/>
-      <definedName name="PVT_Muo_cP"/>
-      <definedName name="PVT_Muw_cP"/>
+      <definedName name="PVT_Mu_gas_cP"/>
+      <definedName name="PVT_mu_oil_cP"/>
+      <definedName name="PVT_mu_wat_cP"/>
       <definedName name="PVT_Rhog_kgm3"/>
       <definedName name="PVT_Rhoo_kgm3"/>
       <definedName name="PVT_Rhow_kgm3"/>
@@ -9154,7 +9153,6 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11178,25 +11176,25 @@
   </sheetPr>
   <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" customWidth="1"/>
-    <col min="11" max="11" width="10.1328125" customWidth="1"/>
-    <col min="22" max="32" width="9.1328125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="22" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -11205,20 +11203,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -11234,7 +11232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -11250,7 +11248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -11266,7 +11264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -11284,7 +11282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
@@ -11302,7 +11300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
@@ -11320,7 +11318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -11338,7 +11336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -11351,7 +11349,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
@@ -11364,13 +11362,13 @@
       <c r="E15" s="22"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="15" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,810;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.810;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -11392,21 +11390,21 @@
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:22" ht="13.15" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:22" ht="15.4" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>0</v>
       </c>
@@ -11441,7 +11439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13">
         <v>1</v>
       </c>
@@ -11457,15 +11455,15 @@
         <v>1.0376399914230205</v>
       </c>
       <c r="F24" s="16">
-        <f>[1]!PVT_Muo_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.6590459978763108</v>
       </c>
       <c r="G24" s="18">
-        <f>[1]!PVT_Mug_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2059353211390567E-2</v>
       </c>
       <c r="H24" s="17">
-        <f>[1]!PVT_Muw_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.33586886209810729</v>
       </c>
       <c r="I24" s="16">
@@ -11485,7 +11483,7 @@
         <v>1.2077182981541317</v>
       </c>
     </row>
-    <row r="25" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13">
         <v>5</v>
       </c>
@@ -11502,15 +11500,15 @@
         <v>1.0403048627533211</v>
       </c>
       <c r="F25" s="16">
-        <f>[1]!PVT_Muo_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.4223975306249876</v>
       </c>
       <c r="G25" s="18">
-        <f>[1]!PVT_Mug_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2107192761995657E-2</v>
       </c>
       <c r="H25" s="17">
-        <f>[1]!PVT_Muw_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.3366698582445789</v>
       </c>
       <c r="I25" s="16">
@@ -11530,7 +11528,7 @@
         <v>0.2399727744470129</v>
       </c>
     </row>
-    <row r="26" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13">
         <v>10</v>
       </c>
@@ -11547,15 +11545,15 @@
         <v>1.0443981738928323</v>
       </c>
       <c r="F26" s="16">
-        <f>[1]!PVT_Muo_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.1210880218224655</v>
       </c>
       <c r="G26" s="18">
-        <f>[1]!PVT_Mug_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2187318955247543E-2</v>
       </c>
       <c r="H26" s="17">
-        <f>[1]!PVT_Muw_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.33768124309210917</v>
       </c>
       <c r="I26" s="16">
@@ -11575,7 +11573,7 @@
         <v>0.11906792789750065</v>
       </c>
     </row>
-    <row r="27" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13">
         <v>20</v>
       </c>
@@ -11592,15 +11590,15 @@
         <v>1.0539767147414263</v>
       </c>
       <c r="F27" s="16">
-        <f>[1]!PVT_Muo_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.6106743697866679</v>
       </c>
       <c r="G27" s="18">
-        <f>[1]!PVT_Mug_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.238888590743391E-2</v>
       </c>
       <c r="H27" s="17">
-        <f>[1]!PVT_Muw_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.33973781166863876</v>
       </c>
       <c r="I27" s="16">
@@ -11620,7 +11618,7 @@
         <v>5.8740687207055151E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13">
         <v>40</v>
       </c>
@@ -11637,15 +11635,15 @@
         <v>1.0767454604846787</v>
       </c>
       <c r="F28" s="16">
-        <f>[1]!PVT_Muo_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.9330926543476408</v>
       </c>
       <c r="G28" s="18">
-        <f>[1]!PVT_Mug_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2908515352492692E-2</v>
       </c>
       <c r="H28" s="17">
-        <f>[1]!PVT_Muw_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.34398614434757446</v>
       </c>
       <c r="I28" s="16">
@@ -11665,7 +11663,7 @@
         <v>2.8814834594084415E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13">
         <v>60</v>
       </c>
@@ -11682,15 +11680,15 @@
         <v>1.1030496093855067</v>
       </c>
       <c r="F29" s="16">
-        <f>[1]!PVT_Muo_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.528854404837479</v>
       </c>
       <c r="G29" s="18">
-        <f>[1]!PVT_Mug_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.3546588499853221E-2</v>
       </c>
       <c r="H29" s="17">
-        <f>[1]!PVT_Muw_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.34841473772767878</v>
       </c>
       <c r="I29" s="16">
@@ -11710,7 +11708,7 @@
         <v>1.9022586955677732E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13">
         <v>80</v>
       </c>
@@ -11727,15 +11725,15 @@
         <v>1.1322091794660498</v>
       </c>
       <c r="F30" s="16">
-        <f>[1]!PVT_Muo_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2663274699553588</v>
       </c>
       <c r="G30" s="18">
-        <f>[1]!PVT_Mug_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.4277475447539722E-2</v>
       </c>
       <c r="H30" s="17">
-        <f>[1]!PVT_Muw_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.35302359180895171</v>
       </c>
       <c r="I30" s="16">
@@ -11755,7 +11753,7 @@
         <v>1.4239809734974395E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13">
         <v>100</v>
       </c>
@@ -11772,15 +11770,15 @@
         <v>1.1638439565928362</v>
       </c>
       <c r="F31" s="16">
-        <f>[1]!PVT_Muo_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.083519950310037</v>
       </c>
       <c r="G31" s="18">
-        <f>[1]!PVT_Mug_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.5081559965179573E-2</v>
       </c>
       <c r="H31" s="17">
-        <f>[1]!PVT_Muw_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.3578127065913933</v>
       </c>
       <c r="I31" s="16">
@@ -11800,7 +11798,7 @@
         <v>1.1444537028166656E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13">
         <v>120</v>
       </c>
@@ -11817,15 +11815,15 @@
         <v>1.1807028368114907</v>
       </c>
       <c r="F32" s="16">
-        <f>[1]!PVT_Muo_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0150338484210872</v>
       </c>
       <c r="G32" s="18">
-        <f>[1]!PVT_Mug_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.5942331647534887E-2</v>
       </c>
       <c r="H32" s="17">
-        <f>[1]!PVT_Muw_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.36278208207500345</v>
       </c>
       <c r="I32" s="16">
@@ -11845,7 +11843,7 @@
         <v>9.6312041879797541E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13">
         <v>140</v>
       </c>
@@ -11862,15 +11860,15 @@
         <v>1.1756565721957675</v>
       </c>
       <c r="F33" s="16">
-        <f>[1]!PVT_Muo_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0539730937727505</v>
       </c>
       <c r="G33" s="18">
-        <f>[1]!PVT_Mug_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.6846675130245223E-2</v>
       </c>
       <c r="H33" s="17">
-        <f>[1]!PVT_Muw_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.36793171825978227</v>
       </c>
       <c r="I33" s="16">
@@ -11890,7 +11888,7 @@
         <v>8.3695718088086651E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13">
         <v>160</v>
       </c>
@@ -11907,15 +11905,15 @@
         <v>1.171886032441448</v>
       </c>
       <c r="F34" s="16">
-        <f>[1]!PVT_Muo_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0988020693441951</v>
       </c>
       <c r="G34" s="18">
-        <f>[1]!PVT_Mug_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.778627391722987E-2</v>
       </c>
       <c r="H34" s="17">
-        <f>[1]!PVT_Muw_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.3732616151457297</v>
       </c>
       <c r="I34" s="16">
@@ -11935,7 +11933,7 @@
         <v>7.4444221416264935E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13">
         <v>180</v>
       </c>
@@ -11952,15 +11950,15 @@
         <v>1.1689617528470237</v>
       </c>
       <c r="F35" s="16">
-        <f>[1]!PVT_Muo_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1489535809957676</v>
       </c>
       <c r="G35" s="18">
-        <f>[1]!PVT_Mug_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.8759718979044708E-2</v>
       </c>
       <c r="H35" s="17">
-        <f>[1]!PVT_Muw_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.37877177273284574</v>
       </c>
       <c r="I35" s="16">
@@ -11980,7 +11978,7 @@
         <v>6.7354637741356719E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13">
         <v>200</v>
       </c>
@@ -11997,15 +11995,15 @@
         <v>1.166627583983717</v>
       </c>
       <c r="F36" s="16">
-        <f>[1]!PVT_Muo_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.203972303107961</v>
       </c>
       <c r="G36" s="18">
-        <f>[1]!PVT_Mug_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.9775208533050367E-2</v>
       </c>
       <c r="H36" s="17">
-        <f>[1]!PVT_Muw_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.38446219102113038</v>
       </c>
       <c r="I36" s="16">
@@ -12025,7 +12023,7 @@
         <v>6.1693684086986658E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13">
         <v>220</v>
       </c>
@@ -12042,15 +12040,15 @@
         <v>1.1647212766198463</v>
       </c>
       <c r="F37" s="16">
-        <f>[1]!PVT_Muo_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2634693864615052</v>
       </c>
       <c r="G37" s="18">
-        <f>[1]!PVT_Mug_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.0853680368474431E-2</v>
       </c>
       <c r="H37" s="17">
-        <f>[1]!PVT_Muw_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.39033287001058364</v>
       </c>
       <c r="I37" s="16">
@@ -12070,7 +12068,7 @@
         <v>5.6981959510062187E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13">
         <v>240</v>
       </c>
@@ -12087,15 +12085,15 @@
         <v>1.1631350668556242</v>
       </c>
       <c r="F38" s="16">
-        <f>[1]!PVT_Muo_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.3270934867213295</v>
       </c>
       <c r="G38" s="18">
-        <f>[1]!PVT_Mug_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.2031880691004677E-2</v>
       </c>
       <c r="H38" s="17">
-        <f>[1]!PVT_Muw_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.39638380970120551</v>
       </c>
       <c r="I38" s="16">
@@ -12115,7 +12113,7 @@
         <v>5.2890910575680685E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13">
         <v>260</v>
       </c>
@@ -12132,15 +12130,15 @@
         <v>1.161794576757974</v>
       </c>
       <c r="F39" s="16">
-        <f>[1]!PVT_Muo_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.3945118094201936</v>
       </c>
       <c r="G39" s="18">
-        <f>[1]!PVT_Mug_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.3364019617955738E-2</v>
       </c>
       <c r="H39" s="17">
-        <f>[1]!PVT_Muw_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.40261501009299605</v>
       </c>
       <c r="I39" s="16">
@@ -12160,7 +12158,7 @@
         <v>4.9195515527113752E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13">
         <v>280</v>
       </c>
@@ -12177,15 +12175,15 @@
         <v>1.1606468149181419</v>
       </c>
       <c r="F40" s="16">
-        <f>[1]!PVT_Muo_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.4653976132678437</v>
       </c>
       <c r="G40" s="18">
-        <f>[1]!PVT_Mug_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.4918840475639321E-2</v>
       </c>
       <c r="H40" s="17">
-        <f>[1]!PVT_Muw_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4090264711859552</v>
       </c>
       <c r="I40" s="16">
@@ -12205,7 +12203,7 @@
         <v>4.5757977261443299E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13">
         <v>300</v>
       </c>
@@ -12222,15 +12220,15 @@
         <v>1.1596530052285474</v>
       </c>
       <c r="F41" s="16">
-        <f>[1]!PVT_Muo_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.5394220845388018</v>
       </c>
       <c r="G41" s="18">
-        <f>[1]!PVT_Mug_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.67658219074919E-2</v>
       </c>
       <c r="H41" s="17">
-        <f>[1]!PVT_Muw_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4156181929800829</v>
       </c>
       <c r="I41" s="16">
@@ -12250,7 +12248,7 @@
         <v>4.2527192837378859E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13">
         <v>320</v>
       </c>
@@ -12267,15 +12265,15 @@
         <v>1.1587841198237245</v>
       </c>
       <c r="F42" s="16">
-        <f>[1]!PVT_Muo_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.6162492971150435</v>
       </c>
       <c r="G42" s="18">
-        <f>[1]!PVT_Mug_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.8941730482993252E-2</v>
       </c>
       <c r="H42" s="17">
-        <f>[1]!PVT_Muw_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.42239017547537927</v>
       </c>
       <c r="I42" s="16">
@@ -12295,7 +12293,7 @@
         <v>3.9537941144497536E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13">
         <v>340</v>
       </c>
@@ -12312,15 +12310,15 @@
         <v>1.1580179968898257</v>
       </c>
       <c r="F43" s="16">
-        <f>[1]!PVT_Muo_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.6955334284997405</v>
       </c>
       <c r="G43" s="18">
-        <f>[1]!PVT_Mug_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.1396089352881809E-2</v>
       </c>
       <c r="H43" s="17">
-        <f>[1]!PVT_Muw_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.42934241867184425</v>
       </c>
       <c r="I43" s="16">
@@ -12340,7 +12338,7 @@
         <v>3.6890976278212461E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13">
         <v>360</v>
       </c>
@@ -12357,15 +12355,15 @@
         <v>1.1573374239612799</v>
       </c>
       <c r="F44" s="16">
-        <f>[1]!PVT_Muo_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.7769176699591986</v>
       </c>
       <c r="G44" s="18">
-        <f>[1]!PVT_Mug_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.3947356962223979E-2</v>
       </c>
       <c r="H44" s="17">
-        <f>[1]!PVT_Muw_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4364749225694779</v>
       </c>
       <c r="I44" s="16">
@@ -12385,7 +12383,7 @@
         <v>3.4701763770354486E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13">
         <v>380</v>
       </c>
@@ -12402,15 +12400,15 @@
         <v>1.1567288293332683</v>
       </c>
       <c r="F45" s="16">
-        <f>[1]!PVT_Muo_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.8600344308253411</v>
       </c>
       <c r="G45" s="18">
-        <f>[1]!PVT_Mug_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.6324404400056597E-2</v>
       </c>
       <c r="H45" s="17">
-        <f>[1]!PVT_Muw_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4437876871682801</v>
       </c>
       <c r="I45" s="16">
@@ -12430,7 +12428,7 @@
         <v>3.3030041050806486E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13">
         <v>400</v>
       </c>
@@ -12447,15 +12445,15 @@
         <v>1.1561813678019959</v>
       </c>
       <c r="F46" s="16">
-        <f>[1]!PVT_Muo_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.9445065373866866</v>
       </c>
       <c r="G46" s="18">
-        <f>[1]!PVT_Mug_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.8320119695326442E-2</v>
       </c>
       <c r="H46" s="17">
-        <f>[1]!PVT_Muw_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.45128071246825097</v>
       </c>
       <c r="I46" s="16">
@@ -12475,7 +12473,7 @@
         <v>3.1832771452473037E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13">
         <v>420</v>
       </c>
@@ -12492,15 +12490,15 @@
         <v>1.1556862687325413</v>
       </c>
       <c r="F47" s="16">
-        <f>[1]!PVT_Muo_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.0299491908408389</v>
       </c>
       <c r="G47" s="18">
-        <f>[1]!PVT_Mug_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.9920346276124327E-2</v>
       </c>
       <c r="H47" s="17">
-        <f>[1]!PVT_Muw_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.45895399846939039</v>
       </c>
       <c r="I47" s="16">
@@ -12520,7 +12518,7 @@
         <v>3.0981487328644915E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13">
         <v>440</v>
       </c>
@@ -12537,15 +12535,15 @@
         <v>1.1552363626482165</v>
       </c>
       <c r="F48" s="16">
-        <f>[1]!PVT_Muo_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.1159724911389666</v>
       </c>
       <c r="G48" s="18">
-        <f>[1]!PVT_Mug_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>4.1258506084948812E-2</v>
       </c>
       <c r="H48" s="17">
-        <f>[1]!PVT_Muw_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.46680754517169848</v>
       </c>
       <c r="I48" s="16">
@@ -12565,7 +12563,7 @@
         <v>3.0332193236328763E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13">
         <v>460</v>
       </c>
@@ -12582,15 +12580,15 @@
         <v>1.1548257317981199</v>
       </c>
       <c r="F49" s="16">
-        <f>[1]!PVT_Muo_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.2021843629945894</v>
       </c>
       <c r="G49" s="18">
-        <f>[1]!PVT_Mug_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>4.2474321382086427E-2</v>
       </c>
       <c r="H49" s="17">
-        <f>[1]!PVT_Muw_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.47484135257517518</v>
       </c>
       <c r="I49" s="16">
@@ -12610,13 +12608,13 @@
         <v>2.9785393009516222E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K108" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K119" s="3"/>
     </row>
   </sheetData>

--- a/excercises/excercises/10.PVT.xlsx
+++ b/excercises/excercises/10.PVT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD436D7E-DD4D-4F2F-B788-C70B998913E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E109AC2-37F4-470C-A9B3-596FF625439B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="2280" windowWidth="21930" windowHeight="17160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="4905" windowWidth="19320" windowHeight="14295" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PVT" sheetId="112" r:id="rId1"/>
@@ -9141,8 +9141,8 @@
       <definedName name="getUFVersion"/>
       <definedName name="PVT_Bg_m3m3"/>
       <definedName name="PVT_Bo_m3m3"/>
-      <definedName name="PVT_encode_string"/>
-      <definedName name="PVT_Mu_gas_cP"/>
+      <definedName name="PVT_Encode_string"/>
+      <definedName name="PVT_mu_gas_cP"/>
       <definedName name="PVT_mu_oil_cP"/>
       <definedName name="PVT_mu_wat_cP"/>
       <definedName name="PVT_Rhog_kgm3"/>
@@ -11177,7 +11177,7 @@
   <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -11203,7 +11203,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -11367,8 +11367,8 @@
         <v>34</v>
       </c>
       <c r="C17" s="15" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.810;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,810;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -11459,7 +11459,7 @@
         <v>3.6590459978763108</v>
       </c>
       <c r="G24" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2059353211390567E-2</v>
       </c>
       <c r="H24" s="17">
@@ -11504,7 +11504,7 @@
         <v>3.4223975306249876</v>
       </c>
       <c r="G25" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2107192761995657E-2</v>
       </c>
       <c r="H25" s="17">
@@ -11549,7 +11549,7 @@
         <v>3.1210880218224655</v>
       </c>
       <c r="G26" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2187318955247543E-2</v>
       </c>
       <c r="H26" s="17">
@@ -11594,7 +11594,7 @@
         <v>2.6106743697866679</v>
       </c>
       <c r="G27" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.238888590743391E-2</v>
       </c>
       <c r="H27" s="17">
@@ -11639,7 +11639,7 @@
         <v>1.9330926543476408</v>
       </c>
       <c r="G28" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2908515352492692E-2</v>
       </c>
       <c r="H28" s="17">
@@ -11684,7 +11684,7 @@
         <v>1.528854404837479</v>
       </c>
       <c r="G29" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.3546588499853221E-2</v>
       </c>
       <c r="H29" s="17">
@@ -11729,7 +11729,7 @@
         <v>1.2663274699553588</v>
       </c>
       <c r="G30" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.4277475447539722E-2</v>
       </c>
       <c r="H30" s="17">
@@ -11774,7 +11774,7 @@
         <v>1.083519950310037</v>
       </c>
       <c r="G31" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.5081559965179573E-2</v>
       </c>
       <c r="H31" s="17">
@@ -11819,7 +11819,7 @@
         <v>1.0150338484210872</v>
       </c>
       <c r="G32" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.5942331647534887E-2</v>
       </c>
       <c r="H32" s="17">
@@ -11864,7 +11864,7 @@
         <v>1.0539730937727505</v>
       </c>
       <c r="G33" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.6846675130245223E-2</v>
       </c>
       <c r="H33" s="17">
@@ -11909,7 +11909,7 @@
         <v>1.0988020693441951</v>
       </c>
       <c r="G34" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.778627391722987E-2</v>
       </c>
       <c r="H34" s="17">
@@ -11954,7 +11954,7 @@
         <v>1.1489535809957676</v>
       </c>
       <c r="G35" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.8759718979044708E-2</v>
       </c>
       <c r="H35" s="17">
@@ -11999,7 +11999,7 @@
         <v>1.203972303107961</v>
       </c>
       <c r="G36" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.9775208533050367E-2</v>
       </c>
       <c r="H36" s="17">
@@ -12044,7 +12044,7 @@
         <v>1.2634693864615052</v>
       </c>
       <c r="G37" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.0853680368474431E-2</v>
       </c>
       <c r="H37" s="17">
@@ -12089,7 +12089,7 @@
         <v>1.3270934867213295</v>
       </c>
       <c r="G38" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.2031880691004677E-2</v>
       </c>
       <c r="H38" s="17">
@@ -12134,7 +12134,7 @@
         <v>1.3945118094201936</v>
       </c>
       <c r="G39" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.3364019617955738E-2</v>
       </c>
       <c r="H39" s="17">
@@ -12179,7 +12179,7 @@
         <v>1.4653976132678437</v>
       </c>
       <c r="G40" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.4918840475639321E-2</v>
       </c>
       <c r="H40" s="17">
@@ -12224,7 +12224,7 @@
         <v>1.5394220845388018</v>
       </c>
       <c r="G41" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.67658219074919E-2</v>
       </c>
       <c r="H41" s="17">
@@ -12269,7 +12269,7 @@
         <v>1.6162492971150435</v>
       </c>
       <c r="G42" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.8941730482993252E-2</v>
       </c>
       <c r="H42" s="17">
@@ -12314,7 +12314,7 @@
         <v>1.6955334284997405</v>
       </c>
       <c r="G43" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.1396089352881809E-2</v>
       </c>
       <c r="H43" s="17">
@@ -12359,7 +12359,7 @@
         <v>1.7769176699591986</v>
       </c>
       <c r="G44" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.3947356962223979E-2</v>
       </c>
       <c r="H44" s="17">
@@ -12404,7 +12404,7 @@
         <v>1.8600344308253411</v>
       </c>
       <c r="G45" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.6324404400056597E-2</v>
       </c>
       <c r="H45" s="17">
@@ -12449,7 +12449,7 @@
         <v>1.9445065373866866</v>
       </c>
       <c r="G46" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.8320119695326442E-2</v>
       </c>
       <c r="H46" s="17">
@@ -12494,7 +12494,7 @@
         <v>2.0299491908408389</v>
       </c>
       <c r="G47" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.9920346276124327E-2</v>
       </c>
       <c r="H47" s="17">
@@ -12539,7 +12539,7 @@
         <v>2.1159724911389666</v>
       </c>
       <c r="G48" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>4.1258506084948812E-2</v>
       </c>
       <c r="H48" s="17">
@@ -12584,7 +12584,7 @@
         <v>2.2021843629945894</v>
       </c>
       <c r="G49" s="18">
-        <f>[1]!PVT_Mu_gas_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>4.2474321382086427E-2</v>
       </c>
       <c r="H49" s="17">

--- a/excercises/excercises/10.PVT.xlsx
+++ b/excercises/excercises/10.PVT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E109AC2-37F4-470C-A9B3-596FF625439B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F544BA6B-42E7-437F-BF99-693C5C5324DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="4905" windowWidth="19320" windowHeight="14295" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PVT" sheetId="112" r:id="rId1"/>
@@ -9139,16 +9139,16 @@
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
-      <definedName name="PVT_Bg_m3m3"/>
-      <definedName name="PVT_Bo_m3m3"/>
-      <definedName name="PVT_Encode_string"/>
+      <definedName name="PVT_bg_m3m3"/>
+      <definedName name="PVT_bo_m3m3"/>
+      <definedName name="PVT_encode_string"/>
       <definedName name="PVT_mu_gas_cP"/>
       <definedName name="PVT_mu_oil_cP"/>
       <definedName name="PVT_mu_wat_cP"/>
-      <definedName name="PVT_Rhog_kgm3"/>
-      <definedName name="PVT_Rhoo_kgm3"/>
-      <definedName name="PVT_Rhow_kgm3"/>
-      <definedName name="PVT_Rs_m3m3"/>
+      <definedName name="PVT_rhog_kgm3"/>
+      <definedName name="PVT_rhoo_kgm3"/>
+      <definedName name="PVT_rhow_kgm3"/>
+      <definedName name="PVT_rs_m3m3"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -11176,8 +11176,8 @@
   </sheetPr>
   <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -11367,7 +11367,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="15" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,810;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="D17" s="15"/>
@@ -11447,11 +11447,11 @@
         <v>80</v>
       </c>
       <c r="D24" s="16">
-        <f>[1]!PVT_Rs_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.27349174723217989</v>
       </c>
       <c r="E24" s="17">
-        <f>[1]!PVT_Bo_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0376399914230205</v>
       </c>
       <c r="F24" s="16">
@@ -11467,19 +11467,19 @@
         <v>0.33586886209810729</v>
       </c>
       <c r="I24" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.81937733452615791</v>
       </c>
       <c r="J24" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.56653980677311</v>
       </c>
       <c r="K24" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>838.70190850032748</v>
       </c>
       <c r="L24" s="23">
-        <f>[1]!PVT_Bg_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>1.2077182981541317</v>
       </c>
     </row>
@@ -11492,11 +11492,11 @@
         <v>80</v>
       </c>
       <c r="D25" s="16">
-        <f>[1]!PVT_Rs_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.8989088169782065</v>
       </c>
       <c r="E25" s="17">
-        <f>[1]!PVT_Bo_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0403048627533211</v>
       </c>
       <c r="F25" s="16">
@@ -11512,19 +11512,19 @@
         <v>0.3366698582445789</v>
       </c>
       <c r="I25" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>4.1237052923205804</v>
       </c>
       <c r="J25" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.6078507425874</v>
       </c>
       <c r="K25" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>838.09962608731962</v>
       </c>
       <c r="L25" s="23">
-        <f>[1]!PVT_Bg_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>0.2399727744470129</v>
       </c>
     </row>
@@ -11537,11 +11537,11 @@
         <v>80</v>
       </c>
       <c r="D26" s="16">
-        <f>[1]!PVT_Rs_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>4.3746592004508686</v>
       </c>
       <c r="E26" s="17">
-        <f>[1]!PVT_Bo_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0443981738928323</v>
       </c>
       <c r="F26" s="16">
@@ -11557,19 +11557,19 @@
         <v>0.33768124309210917</v>
       </c>
       <c r="I26" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>8.3110289855037642</v>
       </c>
       <c r="J26" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.66190643699338</v>
       </c>
       <c r="K26" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>837.16065767204338</v>
       </c>
       <c r="L26" s="23">
-        <f>[1]!PVT_Bg_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>0.11906792789750065</v>
       </c>
     </row>
@@ -11582,11 +11582,11 @@
         <v>80</v>
       </c>
       <c r="D27" s="16">
-        <f>[1]!PVT_Rs_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>10.078231744978554</v>
       </c>
       <c r="E27" s="17">
-        <f>[1]!PVT_Bo_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0539767147414263</v>
       </c>
       <c r="F27" s="16">
@@ -11602,19 +11602,19 @@
         <v>0.33973781166863876</v>
       </c>
       <c r="I27" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>16.846534268689066</v>
       </c>
       <c r="J27" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.77807803228427</v>
       </c>
       <c r="K27" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>834.90761610552829</v>
       </c>
       <c r="L27" s="23">
-        <f>[1]!PVT_Bg_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>5.8740687207055151E-2</v>
       </c>
     </row>
@@ -11627,11 +11627,11 @@
         <v>80</v>
       </c>
       <c r="D28" s="16">
-        <f>[1]!PVT_Rs_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>23.217981207547599</v>
       </c>
       <c r="E28" s="17">
-        <f>[1]!PVT_Bo_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0767454604846787</v>
       </c>
       <c r="F28" s="16">
@@ -11647,19 +11647,19 @@
         <v>0.34398614434757446</v>
       </c>
       <c r="I28" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>34.342622955856108</v>
       </c>
       <c r="J28" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>971.04268997016459</v>
       </c>
       <c r="K28" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>829.32876242400255</v>
       </c>
       <c r="L28" s="23">
-        <f>[1]!PVT_Bg_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>2.8814834594084415E-2</v>
       </c>
     </row>
@@ -11672,11 +11672,11 @@
         <v>80</v>
       </c>
       <c r="D29" s="16">
-        <f>[1]!PVT_Rs_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>37.830173339018913</v>
       </c>
       <c r="E29" s="17">
-        <f>[1]!PVT_Bo_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1030496093855067</v>
       </c>
       <c r="F29" s="16">
@@ -11692,19 +11692,19 @@
         <v>0.34841473772767878</v>
       </c>
       <c r="I29" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>52.021157916412513</v>
       </c>
       <c r="J29" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>971.35038666714604</v>
       </c>
       <c r="K29" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>822.660977095877</v>
       </c>
       <c r="L29" s="23">
-        <f>[1]!PVT_Bg_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>1.9022586955677732E-2</v>
       </c>
     </row>
@@ -11717,11 +11717,11 @@
         <v>80</v>
       </c>
       <c r="D30" s="16">
-        <f>[1]!PVT_Rs_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>53.489011266547386</v>
       </c>
       <c r="E30" s="17">
-        <f>[1]!PVT_Bo_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1322091794660498</v>
       </c>
       <c r="F30" s="16">
@@ -11737,19 +11737,19 @@
         <v>0.35302359180895171</v>
       </c>
       <c r="I30" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>69.493695380599092</v>
       </c>
       <c r="J30" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>971.70124991871342</v>
       </c>
       <c r="K30" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>815.15987685011612</v>
       </c>
       <c r="L30" s="23">
-        <f>[1]!PVT_Bg_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>1.4239809734974395E-2</v>
       </c>
     </row>
@@ -11762,11 +11762,11 @@
         <v>80</v>
       </c>
       <c r="D31" s="16">
-        <f>[1]!PVT_Rs_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>69.975212465342153</v>
       </c>
       <c r="E31" s="17">
-        <f>[1]!PVT_Bo_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1638439565928362</v>
       </c>
       <c r="F31" s="16">
@@ -11782,19 +11782,19 @@
         <v>0.3578127065913933</v>
       </c>
       <c r="I31" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>86.467193698138104</v>
       </c>
       <c r="J31" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>972.09537309020902</v>
       </c>
       <c r="K31" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>807.0204390419027</v>
       </c>
       <c r="L31" s="23">
-        <f>[1]!PVT_Bg_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>1.1444537028166656E-2</v>
       </c>
     </row>
@@ -11807,11 +11807,11 @@
         <v>80</v>
       </c>
       <c r="D32" s="16">
-        <f>[1]!PVT_Rs_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E32" s="17">
-        <f>[1]!PVT_Bo_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1807028368114907</v>
       </c>
       <c r="F32" s="16">
@@ -11827,19 +11827,19 @@
         <v>0.36278208207500345</v>
       </c>
       <c r="I32" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>102.74696504047166</v>
       </c>
       <c r="J32" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>972.53286117907339</v>
       </c>
       <c r="K32" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>803.89927965553159</v>
       </c>
       <c r="L32" s="23">
-        <f>[1]!PVT_Bg_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>9.6312041879797541E-3</v>
       </c>
     </row>
@@ -11852,11 +11852,11 @@
         <v>80</v>
       </c>
       <c r="D33" s="16">
-        <f>[1]!PVT_Rs_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E33" s="17">
-        <f>[1]!PVT_Bo_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1756565721957675</v>
       </c>
       <c r="F33" s="16">
@@ -11872,19 +11872,19 @@
         <v>0.36793171825978227</v>
       </c>
       <c r="I33" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>118.23508091041251</v>
       </c>
       <c r="J33" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>973.01383088495345</v>
       </c>
       <c r="K33" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>807.34985236993782</v>
       </c>
       <c r="L33" s="23">
-        <f>[1]!PVT_Bg_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>8.3695718088086651E-3</v>
       </c>
     </row>
@@ -11897,11 +11897,11 @@
         <v>80</v>
       </c>
       <c r="D34" s="16">
-        <f>[1]!PVT_Rs_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E34" s="17">
-        <f>[1]!PVT_Bo_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.171886032441448</v>
       </c>
       <c r="F34" s="16">
@@ -11917,19 +11917,19 @@
         <v>0.3732616151457297</v>
       </c>
       <c r="I34" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>132.92865197241386</v>
       </c>
       <c r="J34" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>973.53841068777274</v>
       </c>
       <c r="K34" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>809.94749807074277</v>
       </c>
       <c r="L34" s="23">
-        <f>[1]!PVT_Bg_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>7.4444221416264935E-3</v>
       </c>
     </row>
@@ -11942,11 +11942,11 @@
         <v>80</v>
       </c>
       <c r="D35" s="16">
-        <f>[1]!PVT_Rs_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E35" s="17">
-        <f>[1]!PVT_Bo_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1689617528470237</v>
       </c>
       <c r="F35" s="16">
@@ -11962,19 +11962,19 @@
         <v>0.37877177273284574</v>
       </c>
       <c r="I35" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>146.92039526661807</v>
       </c>
       <c r="J35" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>974.10674093385262</v>
       </c>
       <c r="K35" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>811.97366610865731</v>
       </c>
       <c r="L35" s="23">
-        <f>[1]!PVT_Bg_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>6.7354637741356719E-3</v>
       </c>
     </row>
@@ -11987,11 +11987,11 @@
         <v>80</v>
       </c>
       <c r="D36" s="16">
-        <f>[1]!PVT_Rs_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E36" s="17">
-        <f>[1]!PVT_Bo_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.166627583983717</v>
       </c>
       <c r="F36" s="16">
@@ -12007,19 +12007,19 @@
         <v>0.38446219102113038</v>
       </c>
       <c r="I36" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>160.40167071311862</v>
       </c>
       <c r="J36" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>974.71897393020072</v>
       </c>
       <c r="K36" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>813.59824937351027</v>
       </c>
       <c r="L36" s="23">
-        <f>[1]!PVT_Bg_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>6.1693684086986658E-3</v>
       </c>
     </row>
@@ -12032,11 +12032,11 @@
         <v>80</v>
       </c>
       <c r="D37" s="16">
-        <f>[1]!PVT_Rs_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E37" s="17">
-        <f>[1]!PVT_Bo_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1647212766198463</v>
       </c>
       <c r="F37" s="16">
@@ -12052,19 +12052,19 @@
         <v>0.39033287001058364</v>
       </c>
       <c r="I37" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>173.66496493074359</v>
       </c>
       <c r="J37" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>975.37527404707998</v>
       </c>
       <c r="K37" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>814.92987125176273</v>
       </c>
       <c r="L37" s="23">
-        <f>[1]!PVT_Bg_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>5.6981959510062187E-3</v>
       </c>
     </row>
@@ -12077,11 +12077,11 @@
         <v>80</v>
       </c>
       <c r="D38" s="16">
-        <f>[1]!PVT_Rs_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E38" s="17">
-        <f>[1]!PVT_Bo_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1631350668556242</v>
       </c>
       <c r="F38" s="16">
@@ -12097,19 +12097,19 @@
         <v>0.39638380970120551</v>
       </c>
       <c r="I38" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>187.09774311486498</v>
       </c>
       <c r="J38" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>976.07581782899126</v>
       </c>
       <c r="K38" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>816.04122087552594</v>
       </c>
       <c r="L38" s="23">
-        <f>[1]!PVT_Bg_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>5.2890910575680685E-3</v>
       </c>
     </row>
@@ -12122,11 +12122,11 @@
         <v>80</v>
       </c>
       <c r="D39" s="16">
-        <f>[1]!PVT_Rs_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E39" s="17">
-        <f>[1]!PVT_Bo_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.161794576757974</v>
       </c>
       <c r="F39" s="16">
@@ -12142,19 +12142,19 @@
         <v>0.40261501009299605</v>
       </c>
       <c r="I39" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>201.15187114049081</v>
       </c>
       <c r="J39" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>976.82079411420705</v>
       </c>
       <c r="K39" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>816.98277732426618</v>
       </c>
       <c r="L39" s="23">
-        <f>[1]!PVT_Bg_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>4.9195515527113752E-3</v>
       </c>
     </row>
@@ -12167,11 +12167,11 @@
         <v>80</v>
       </c>
       <c r="D40" s="16">
-        <f>[1]!PVT_Rs_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E40" s="17">
-        <f>[1]!PVT_Bo_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1606468149181419</v>
       </c>
       <c r="F40" s="16">
@@ -12187,19 +12187,19 @@
         <v>0.4090264711859552</v>
       </c>
       <c r="I40" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>216.26327456433262</v>
       </c>
       <c r="J40" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>977.61040416301159</v>
       </c>
       <c r="K40" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>817.79069032894631</v>
       </c>
       <c r="L40" s="23">
-        <f>[1]!PVT_Bg_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>4.5757977261443299E-3</v>
       </c>
     </row>
@@ -12212,11 +12212,11 @@
         <v>80</v>
       </c>
       <c r="D41" s="16">
-        <f>[1]!PVT_Rs_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E41" s="17">
-        <f>[1]!PVT_Bo_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1596530052285474</v>
       </c>
       <c r="F41" s="16">
@@ -12232,19 +12232,19 @@
         <v>0.4156181929800829</v>
       </c>
       <c r="I41" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>232.69276290680091</v>
       </c>
       <c r="J41" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>978.4448617948093</v>
       </c>
       <c r="K41" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>818.49152782813326</v>
       </c>
       <c r="L41" s="23">
-        <f>[1]!PVT_Bg_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>4.2527192837378859E-3</v>
       </c>
     </row>
@@ -12257,11 +12257,11 @@
         <v>80</v>
       </c>
       <c r="D42" s="16">
-        <f>[1]!PVT_Rs_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E42" s="17">
-        <f>[1]!PVT_Bo_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1587841198237245</v>
       </c>
       <c r="F42" s="16">
@@ -12277,19 +12277,19 @@
         <v>0.42239017547537927</v>
       </c>
       <c r="I42" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>250.2854148078772</v>
       </c>
       <c r="J42" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>979.32439353427742</v>
       </c>
       <c r="K42" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>819.10525331015765</v>
       </c>
       <c r="L42" s="23">
-        <f>[1]!PVT_Bg_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.9537941144497536E-3</v>
       </c>
     </row>
@@ -12302,11 +12302,11 @@
         <v>80</v>
       </c>
       <c r="D43" s="16">
-        <f>[1]!PVT_Rs_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E43" s="17">
-        <f>[1]!PVT_Bo_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1580179968898257</v>
       </c>
       <c r="F43" s="16">
@@ -12322,19 +12322,19 @@
         <v>0.42934241867184425</v>
       </c>
       <c r="I43" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>268.24364650507692</v>
       </c>
       <c r="J43" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>980.24923876675155</v>
       </c>
       <c r="K43" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>819.64715794507993</v>
       </c>
       <c r="L43" s="23">
-        <f>[1]!PVT_Bg_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.6890976278212461E-3</v>
       </c>
     </row>
@@ -12347,11 +12347,11 @@
         <v>80</v>
       </c>
       <c r="D44" s="16">
-        <f>[1]!PVT_Rs_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E44" s="17">
-        <f>[1]!PVT_Bo_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1573374239612799</v>
       </c>
       <c r="F44" s="16">
@@ -12367,19 +12367,19 @@
         <v>0.4364749225694779</v>
       </c>
       <c r="I44" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>285.16619689670932</v>
       </c>
       <c r="J44" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>981.21964990304559</v>
       </c>
       <c r="K44" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>820.12915192117339</v>
       </c>
       <c r="L44" s="23">
-        <f>[1]!PVT_Bg_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.4701763770354486E-3</v>
       </c>
     </row>
@@ -12392,11 +12392,11 @@
         <v>80</v>
       </c>
       <c r="D45" s="16">
-        <f>[1]!PVT_Rs_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E45" s="17">
-        <f>[1]!PVT_Bo_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1567288293332683</v>
       </c>
       <c r="F45" s="16">
@@ -12412,19 +12412,19 @@
         <v>0.4437876871682801</v>
       </c>
       <c r="I45" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>299.59908268895049</v>
       </c>
       <c r="J45" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>982.23589255391971</v>
       </c>
       <c r="K45" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>820.56064993823475</v>
       </c>
       <c r="L45" s="23">
-        <f>[1]!PVT_Bg_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.3030041050806486E-3</v>
       </c>
     </row>
@@ -12437,11 +12437,11 @@
         <v>80</v>
       </c>
       <c r="D46" s="16">
-        <f>[1]!PVT_Rs_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E46" s="17">
-        <f>[1]!PVT_Bo_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1561813678019959</v>
       </c>
       <c r="F46" s="16">
@@ -12457,19 +12457,19 @@
         <v>0.45128071246825097</v>
       </c>
       <c r="I46" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>310.86737184585337</v>
       </c>
       <c r="J46" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>983.29824571442282</v>
       </c>
       <c r="K46" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>820.94919225730973</v>
       </c>
       <c r="L46" s="23">
-        <f>[1]!PVT_Bg_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.1832771452473037E-3</v>
       </c>
     </row>
@@ -12482,11 +12482,11 @@
         <v>80</v>
       </c>
       <c r="D47" s="16">
-        <f>[1]!PVT_Rs_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E47" s="17">
-        <f>[1]!PVT_Bo_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1556862687325413</v>
       </c>
       <c r="F47" s="16">
@@ -12502,19 +12502,19 @@
         <v>0.45895399846939039</v>
       </c>
       <c r="I47" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>319.40913278396914</v>
       </c>
       <c r="J47" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>984.4070019583562</v>
       </c>
       <c r="K47" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>821.3008890734377</v>
       </c>
       <c r="L47" s="23">
-        <f>[1]!PVT_Bg_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.0981487328644915E-3</v>
       </c>
     </row>
@@ -12527,11 +12527,11 @@
         <v>80</v>
       </c>
       <c r="D48" s="16">
-        <f>[1]!PVT_Rs_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E48" s="17">
-        <f>[1]!PVT_Bo_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1552363626482165</v>
       </c>
       <c r="F48" s="16">
@@ -12547,19 +12547,19 @@
         <v>0.46680754517169848</v>
       </c>
       <c r="I48" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>326.24643799736418</v>
       </c>
       <c r="J48" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>985.56246764310936</v>
       </c>
       <c r="K48" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>821.62074419486794</v>
       </c>
       <c r="L48" s="23">
-        <f>[1]!PVT_Bg_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>3.0332193236328763E-3</v>
       </c>
     </row>
@@ -12572,11 +12572,11 @@
         <v>80</v>
       </c>
       <c r="D49" s="16">
-        <f>[1]!PVT_Rs_m3m3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rs_m3m3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
       <c r="E49" s="17">
-        <f>[1]!PVT_Bo_m3m3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_bo_m3m3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1548257317981199</v>
       </c>
       <c r="F49" s="16">
@@ -12592,19 +12592,19 @@
         <v>0.47484135257517518</v>
       </c>
       <c r="I49" s="16">
-        <f>[1]!PVT_Rhog_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhog_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>332.23566990834644</v>
       </c>
       <c r="J49" s="16">
-        <f>[1]!PVT_Rhow_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhow_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>986.76496312514394</v>
       </c>
       <c r="K49" s="16">
-        <f>[1]!PVT_Rhoo_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rhoo_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>821.91289461666406</v>
       </c>
       <c r="L49" s="23">
-        <f>[1]!PVT_Bg_m3m3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <f>[1]!PVT_bg_m3m3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
         <v>2.9785393009516222E-3</v>
       </c>
     </row>

--- a/excercises/excercises/10.PVT.xlsx
+++ b/excercises/excercises/10.PVT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F544BA6B-42E7-437F-BF99-693C5C5324DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A821CFD-4673-43A4-8CA3-391BE583890F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PVT" sheetId="112" r:id="rId1"/>
@@ -9145,9 +9145,9 @@
       <definedName name="PVT_mu_gas_cP"/>
       <definedName name="PVT_mu_oil_cP"/>
       <definedName name="PVT_mu_wat_cP"/>
-      <definedName name="PVT_rhog_kgm3"/>
-      <definedName name="PVT_rhoo_kgm3"/>
-      <definedName name="PVT_rhow_kgm3"/>
+      <definedName name="PVT_rho_gas_kgm3"/>
+      <definedName name="PVT_rho_oil_kgm3"/>
+      <definedName name="PVT_rho_wat_kgm3"/>
       <definedName name="PVT_rs_m3m3"/>
     </definedNames>
     <sheetDataSet>
@@ -11177,7 +11177,7 @@
   <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -11203,7 +11203,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.9</v>
+        <v>7.10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="C17" s="15" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,810;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.810;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -11467,15 +11467,15 @@
         <v>0.33586886209810729</v>
       </c>
       <c r="I24" s="16">
-        <f>[1]!PVT_rhog_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.81937733452615791</v>
       </c>
       <c r="J24" s="16">
-        <f>[1]!PVT_rhow_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.56653980677311</v>
       </c>
       <c r="K24" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>838.70190850032748</v>
       </c>
       <c r="L24" s="23">
@@ -11512,15 +11512,15 @@
         <v>0.3366698582445789</v>
       </c>
       <c r="I25" s="16">
-        <f>[1]!PVT_rhog_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>4.1237052923205804</v>
       </c>
       <c r="J25" s="16">
-        <f>[1]!PVT_rhow_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.6078507425874</v>
       </c>
       <c r="K25" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>838.09962608731962</v>
       </c>
       <c r="L25" s="23">
@@ -11557,15 +11557,15 @@
         <v>0.33768124309210917</v>
       </c>
       <c r="I26" s="16">
-        <f>[1]!PVT_rhog_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>8.3110289855037642</v>
       </c>
       <c r="J26" s="16">
-        <f>[1]!PVT_rhow_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.66190643699338</v>
       </c>
       <c r="K26" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>837.16065767204338</v>
       </c>
       <c r="L26" s="23">
@@ -11602,15 +11602,15 @@
         <v>0.33973781166863876</v>
       </c>
       <c r="I27" s="16">
-        <f>[1]!PVT_rhog_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>16.846534268689066</v>
       </c>
       <c r="J27" s="16">
-        <f>[1]!PVT_rhow_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.77807803228427</v>
       </c>
       <c r="K27" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>834.90761610552829</v>
       </c>
       <c r="L27" s="23">
@@ -11647,15 +11647,15 @@
         <v>0.34398614434757446</v>
       </c>
       <c r="I28" s="16">
-        <f>[1]!PVT_rhog_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>34.342622955856108</v>
       </c>
       <c r="J28" s="16">
-        <f>[1]!PVT_rhow_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>971.04268997016459</v>
       </c>
       <c r="K28" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>829.32876242400255</v>
       </c>
       <c r="L28" s="23">
@@ -11692,15 +11692,15 @@
         <v>0.34841473772767878</v>
       </c>
       <c r="I29" s="16">
-        <f>[1]!PVT_rhog_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>52.021157916412513</v>
       </c>
       <c r="J29" s="16">
-        <f>[1]!PVT_rhow_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>971.35038666714604</v>
       </c>
       <c r="K29" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>822.660977095877</v>
       </c>
       <c r="L29" s="23">
@@ -11737,15 +11737,15 @@
         <v>0.35302359180895171</v>
       </c>
       <c r="I30" s="16">
-        <f>[1]!PVT_rhog_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>69.493695380599092</v>
       </c>
       <c r="J30" s="16">
-        <f>[1]!PVT_rhow_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>971.70124991871342</v>
       </c>
       <c r="K30" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>815.15987685011612</v>
       </c>
       <c r="L30" s="23">
@@ -11782,15 +11782,15 @@
         <v>0.3578127065913933</v>
       </c>
       <c r="I31" s="16">
-        <f>[1]!PVT_rhog_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>86.467193698138104</v>
       </c>
       <c r="J31" s="16">
-        <f>[1]!PVT_rhow_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>972.09537309020902</v>
       </c>
       <c r="K31" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>807.0204390419027</v>
       </c>
       <c r="L31" s="23">
@@ -11827,15 +11827,15 @@
         <v>0.36278208207500345</v>
       </c>
       <c r="I32" s="16">
-        <f>[1]!PVT_rhog_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>102.74696504047166</v>
       </c>
       <c r="J32" s="16">
-        <f>[1]!PVT_rhow_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>972.53286117907339</v>
       </c>
       <c r="K32" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>803.89927965553159</v>
       </c>
       <c r="L32" s="23">
@@ -11872,15 +11872,15 @@
         <v>0.36793171825978227</v>
       </c>
       <c r="I33" s="16">
-        <f>[1]!PVT_rhog_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>118.23508091041251</v>
       </c>
       <c r="J33" s="16">
-        <f>[1]!PVT_rhow_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>973.01383088495345</v>
       </c>
       <c r="K33" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>807.34985236993782</v>
       </c>
       <c r="L33" s="23">
@@ -11917,15 +11917,15 @@
         <v>0.3732616151457297</v>
       </c>
       <c r="I34" s="16">
-        <f>[1]!PVT_rhog_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>132.92865197241386</v>
       </c>
       <c r="J34" s="16">
-        <f>[1]!PVT_rhow_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>973.53841068777274</v>
       </c>
       <c r="K34" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>809.94749807074277</v>
       </c>
       <c r="L34" s="23">
@@ -11962,15 +11962,15 @@
         <v>0.37877177273284574</v>
       </c>
       <c r="I35" s="16">
-        <f>[1]!PVT_rhog_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>146.92039526661807</v>
       </c>
       <c r="J35" s="16">
-        <f>[1]!PVT_rhow_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>974.10674093385262</v>
       </c>
       <c r="K35" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>811.97366610865731</v>
       </c>
       <c r="L35" s="23">
@@ -12007,15 +12007,15 @@
         <v>0.38446219102113038</v>
       </c>
       <c r="I36" s="16">
-        <f>[1]!PVT_rhog_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>160.40167071311862</v>
       </c>
       <c r="J36" s="16">
-        <f>[1]!PVT_rhow_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>974.71897393020072</v>
       </c>
       <c r="K36" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>813.59824937351027</v>
       </c>
       <c r="L36" s="23">
@@ -12052,15 +12052,15 @@
         <v>0.39033287001058364</v>
       </c>
       <c r="I37" s="16">
-        <f>[1]!PVT_rhog_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>173.66496493074359</v>
       </c>
       <c r="J37" s="16">
-        <f>[1]!PVT_rhow_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>975.37527404707998</v>
       </c>
       <c r="K37" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>814.92987125176273</v>
       </c>
       <c r="L37" s="23">
@@ -12097,15 +12097,15 @@
         <v>0.39638380970120551</v>
       </c>
       <c r="I38" s="16">
-        <f>[1]!PVT_rhog_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>187.09774311486498</v>
       </c>
       <c r="J38" s="16">
-        <f>[1]!PVT_rhow_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>976.07581782899126</v>
       </c>
       <c r="K38" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>816.04122087552594</v>
       </c>
       <c r="L38" s="23">
@@ -12142,15 +12142,15 @@
         <v>0.40261501009299605</v>
       </c>
       <c r="I39" s="16">
-        <f>[1]!PVT_rhog_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>201.15187114049081</v>
       </c>
       <c r="J39" s="16">
-        <f>[1]!PVT_rhow_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>976.82079411420705</v>
       </c>
       <c r="K39" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>816.98277732426618</v>
       </c>
       <c r="L39" s="23">
@@ -12187,15 +12187,15 @@
         <v>0.4090264711859552</v>
       </c>
       <c r="I40" s="16">
-        <f>[1]!PVT_rhog_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>216.26327456433262</v>
       </c>
       <c r="J40" s="16">
-        <f>[1]!PVT_rhow_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>977.61040416301159</v>
       </c>
       <c r="K40" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>817.79069032894631</v>
       </c>
       <c r="L40" s="23">
@@ -12232,15 +12232,15 @@
         <v>0.4156181929800829</v>
       </c>
       <c r="I41" s="16">
-        <f>[1]!PVT_rhog_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>232.69276290680091</v>
       </c>
       <c r="J41" s="16">
-        <f>[1]!PVT_rhow_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>978.4448617948093</v>
       </c>
       <c r="K41" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>818.49152782813326</v>
       </c>
       <c r="L41" s="23">
@@ -12277,15 +12277,15 @@
         <v>0.42239017547537927</v>
       </c>
       <c r="I42" s="16">
-        <f>[1]!PVT_rhog_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>250.2854148078772</v>
       </c>
       <c r="J42" s="16">
-        <f>[1]!PVT_rhow_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>979.32439353427742</v>
       </c>
       <c r="K42" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>819.10525331015765</v>
       </c>
       <c r="L42" s="23">
@@ -12322,15 +12322,15 @@
         <v>0.42934241867184425</v>
       </c>
       <c r="I43" s="16">
-        <f>[1]!PVT_rhog_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>268.24364650507692</v>
       </c>
       <c r="J43" s="16">
-        <f>[1]!PVT_rhow_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>980.24923876675155</v>
       </c>
       <c r="K43" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>819.64715794507993</v>
       </c>
       <c r="L43" s="23">
@@ -12367,15 +12367,15 @@
         <v>0.4364749225694779</v>
       </c>
       <c r="I44" s="16">
-        <f>[1]!PVT_rhog_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>285.16619689670932</v>
       </c>
       <c r="J44" s="16">
-        <f>[1]!PVT_rhow_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>981.21964990304559</v>
       </c>
       <c r="K44" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>820.12915192117339</v>
       </c>
       <c r="L44" s="23">
@@ -12412,15 +12412,15 @@
         <v>0.4437876871682801</v>
       </c>
       <c r="I45" s="16">
-        <f>[1]!PVT_rhog_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>299.59908268895049</v>
       </c>
       <c r="J45" s="16">
-        <f>[1]!PVT_rhow_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>982.23589255391971</v>
       </c>
       <c r="K45" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>820.56064993823475</v>
       </c>
       <c r="L45" s="23">
@@ -12457,15 +12457,15 @@
         <v>0.45128071246825097</v>
       </c>
       <c r="I46" s="16">
-        <f>[1]!PVT_rhog_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>310.86737184585337</v>
       </c>
       <c r="J46" s="16">
-        <f>[1]!PVT_rhow_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>983.29824571442282</v>
       </c>
       <c r="K46" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>820.94919225730973</v>
       </c>
       <c r="L46" s="23">
@@ -12502,15 +12502,15 @@
         <v>0.45895399846939039</v>
       </c>
       <c r="I47" s="16">
-        <f>[1]!PVT_rhog_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>319.40913278396914</v>
       </c>
       <c r="J47" s="16">
-        <f>[1]!PVT_rhow_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>984.4070019583562</v>
       </c>
       <c r="K47" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>821.3008890734377</v>
       </c>
       <c r="L47" s="23">
@@ -12547,15 +12547,15 @@
         <v>0.46680754517169848</v>
       </c>
       <c r="I48" s="16">
-        <f>[1]!PVT_rhog_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>326.24643799736418</v>
       </c>
       <c r="J48" s="16">
-        <f>[1]!PVT_rhow_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>985.56246764310936</v>
       </c>
       <c r="K48" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>821.62074419486794</v>
       </c>
       <c r="L48" s="23">
@@ -12592,15 +12592,15 @@
         <v>0.47484135257517518</v>
       </c>
       <c r="I49" s="16">
-        <f>[1]!PVT_rhog_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_gas_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>332.23566990834644</v>
       </c>
       <c r="J49" s="16">
-        <f>[1]!PVT_rhow_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_wat_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>986.76496312514394</v>
       </c>
       <c r="K49" s="16">
-        <f>[1]!PVT_rhoo_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_rho_oil_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>821.91289461666406</v>
       </c>
       <c r="L49" s="23">
